--- a/bin/Debug/net8.0-windows/96-24-2030_РКМ_Койда_4_разделка_и_реализация.xlsx
+++ b/bin/Debug/net8.0-windows/96-24-2030_РКМ_Койда_4_разделка_и_реализация.xlsx
@@ -551,4183 +551,4182 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="996">
-  <si>
-    <t>(Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>ИТОГО</t>
-  </si>
-  <si>
-    <t>руб.</t>
-  </si>
-  <si>
-    <t>РАСШИФРОВКА</t>
-  </si>
-  <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>Единица
-измерения</t>
-  </si>
-  <si>
-    <t>№
-п/п</t>
-  </si>
-  <si>
-    <t>Прибыль</t>
-  </si>
-  <si>
-    <t>Общепроизводственные затраты</t>
-  </si>
-  <si>
-    <t>Специальные затраты</t>
-  </si>
-  <si>
-    <t>Затраты на специальную технологическую оснастку</t>
-  </si>
-  <si>
-    <t>в том числе:</t>
-  </si>
-  <si>
-    <t>Затраты на подготовку и освоение производства - всего:</t>
-  </si>
-  <si>
-    <t>дополнительная заработная плата</t>
-  </si>
-  <si>
-    <t>покупные полуфабрикаты</t>
-  </si>
-  <si>
-    <t>Примечание</t>
-  </si>
-  <si>
-    <t>Наименование статей калькуляции</t>
-  </si>
-  <si>
-    <t>Калькуляционная единица</t>
-  </si>
-  <si>
-    <t>(руб.)</t>
-  </si>
-  <si>
-    <t>ИТОГО по разделу 2</t>
-  </si>
-  <si>
-    <t>ИТОГО по разделу 1</t>
-  </si>
-  <si>
-    <t>ВСЕГО:</t>
-  </si>
-  <si>
-    <t>факт</t>
-  </si>
-  <si>
-    <t>план</t>
-  </si>
-  <si>
-    <t>Единица измерения</t>
-  </si>
-  <si>
-    <t>Всего</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>- вспомогательные работники</t>
-  </si>
-  <si>
-    <t>чел.</t>
-  </si>
-  <si>
-    <t>Уровень рентабельности</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Наименование статей затрат</t>
-  </si>
-  <si>
-    <t>Количество видов продукции</t>
-  </si>
-  <si>
-    <t>Планируемый объем выпуска</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>страховые взносы</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>№ п/п</t>
-  </si>
-  <si>
-    <t>УТВЕРЖДАЮ</t>
-  </si>
-  <si>
-    <t>ИНН</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>(наименование, шифр товаров, работ, услуг)</t>
-  </si>
-  <si>
-    <t>Х</t>
-  </si>
-  <si>
-    <t>Страховые взносы на обязательное социальное страхование</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Наименование специального оборудования</t>
-  </si>
-  <si>
-    <t>ИТОГО по этапу (году)</t>
-  </si>
-  <si>
-    <t>сырье и материалы</t>
-  </si>
-  <si>
-    <t>покупные комплектующие изделия</t>
-  </si>
-  <si>
-    <t>тыс. руб.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>№ строки</t>
-  </si>
-  <si>
-    <t>в целом по предприятию</t>
-  </si>
-  <si>
-    <t>валовая прибыль (убыток)</t>
-  </si>
-  <si>
-    <t>прибыль (убыток) от продаж</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>прибыль (убыток) до налогообложения</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>чистая прибыль (убыток)</t>
-  </si>
-  <si>
-    <t>строка 2.1 / строка 4</t>
-  </si>
-  <si>
-    <t>строка 2.2 / строка 4</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>строка 2.3 / строка 4</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>строка 2.4 / строка 4</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>работники, относящиеся к</t>
-  </si>
-  <si>
-    <t>Дополнительная заработная плата</t>
-  </si>
-  <si>
-    <t>работников предприятия, всего:</t>
-  </si>
-  <si>
-    <t>Технологическая трудоемкость, всего</t>
-  </si>
-  <si>
-    <t>Затраты на единицу</t>
-  </si>
-  <si>
-    <t>количество</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Форма № 9</t>
-  </si>
-  <si>
-    <t>№ статей</t>
-  </si>
-  <si>
-    <t>Начало промышленной эксплуатации (дата)</t>
-  </si>
-  <si>
-    <t>Наименование товара, работы, услуги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   основная заработная плата</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   в том числе:</t>
-  </si>
-  <si>
-    <t>(наименование, шифр товара, работы, услуги)</t>
-  </si>
-  <si>
-    <t>Отношение к базе распределения, %</t>
-  </si>
-  <si>
-    <t>в том числе по госконтрактам (контрактам) ГОЗ</t>
-  </si>
-  <si>
-    <t>"____" ___________ 20 ___ г.</t>
-  </si>
-  <si>
-    <t>Форма № 2</t>
-  </si>
-  <si>
-    <t>начало</t>
-  </si>
-  <si>
-    <t>окончание</t>
-  </si>
-  <si>
-    <t>(ТУ, ТЗ, КД, ГОСТ, иное) орган и дата утверждения</t>
-  </si>
-  <si>
-    <t>Код по ОКП/ОКПД2 (шифр)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)</t>
-  </si>
-  <si>
-    <t>Единица измере-ния</t>
-  </si>
-  <si>
-    <t>Амортизация зданий, сооружений, производственного оборудования, транспортных средств (имущества)</t>
-  </si>
-  <si>
-    <t>Обоснование цены поставки</t>
-  </si>
-  <si>
-    <t>Затраты на специальную технологическую оснастку - всего:</t>
-  </si>
-  <si>
-    <t>(наименование организации-поставщика (подрядчика, исполнителя))</t>
-  </si>
-  <si>
-    <t>Предложено организацией-поставщиком (подрядчиком, исполнителем)</t>
-  </si>
-  <si>
-    <t>Метод определения цены:</t>
-  </si>
-  <si>
-    <t>Форма № 19 (19д)</t>
-  </si>
-  <si>
-    <t>Приобретаемое специальное
-оборудование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    в том числе:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    материальные затраты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    страховые взносы на обязательное социальное страхование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    общепроизводственные затраты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       в том числе:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       - основная заработная плата</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       - дополнительная заработная плата</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Общехозяйственные затраты </t>
-  </si>
-  <si>
-    <t>Приложение № 5
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="996">
+  <x:si>
+    <x:t>(Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ИТОГО</x:t>
+  </x:si>
+  <x:si>
+    <x:t>руб.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>РАСШИФРОВКА</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наименование</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Единица
+измерения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>№
+п/п</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Прибыль</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Общепроизводственные затраты</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Специальные затраты</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты на специальную технологическую оснастку</x:t>
+  </x:si>
+  <x:si>
+    <x:t>в том числе:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты на подготовку и освоение производства - всего:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>дополнительная заработная плата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>покупные полуфабрикаты</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Примечание</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наименование статей калькуляции</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Калькуляционная единица</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ИТОГО по разделу 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ИТОГО по разделу 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ВСЕГО:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>факт</x:t>
+  </x:si>
+  <x:si>
+    <x:t>план</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Единица измерения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Всего</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- вспомогательные работники</x:t>
+  </x:si>
+  <x:si>
+    <x:t>чел.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Уровень рентабельности</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наименование статей затрат</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Количество видов продукции</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Планируемый объем выпуска</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>страховые взносы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>№ п/п</x:t>
+  </x:si>
+  <x:si>
+    <x:t>УТВЕРЖДАЮ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ИНН</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(наименование, шифр товаров, работ, услуг)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Х</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Страховые взносы на обязательное социальное страхование</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наименование специального оборудования</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ИТОГО по этапу (году)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>сырье и материалы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>покупные комплектующие изделия</x:t>
+  </x:si>
+  <x:si>
+    <x:t>тыс. руб.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>№ строки</x:t>
+  </x:si>
+  <x:si>
+    <x:t>в целом по предприятию</x:t>
+  </x:si>
+  <x:si>
+    <x:t>валовая прибыль (убыток)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>прибыль (убыток) от продаж</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>прибыль (убыток) до налогообложения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>чистая прибыль (убыток)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>строка 2.1 / строка 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>строка 2.2 / строка 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>строка 2.3 / строка 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>строка 2.4 / строка 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>работники, относящиеся к</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дополнительная заработная плата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>работников предприятия, всего:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Технологическая трудоемкость, всего</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты на единицу</x:t>
+  </x:si>
+  <x:si>
+    <x:t>количество</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>№ статей</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Начало промышленной эксплуатации (дата)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наименование товара, работы, услуги</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   основная заработная плата</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   в том числе:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(наименование, шифр товара, работы, услуги)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отношение к базе распределения, %</x:t>
+  </x:si>
+  <x:si>
+    <x:t>в том числе по госконтрактам (контрактам) ГОЗ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"____" ___________ 20 ___ г.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>начало</x:t>
+  </x:si>
+  <x:si>
+    <x:t>окончание</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(ТУ, ТЗ, КД, ГОСТ, иное) орган и дата утверждения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Код по ОКП/ОКПД2 (шифр)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Единица измере-ния</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Амортизация зданий, сооружений, производственного оборудования, транспортных средств (имущества)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Обоснование цены поставки</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты на специальную технологическую оснастку - всего:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(наименование организации-поставщика (подрядчика, исполнителя))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Предложено организацией-поставщиком (подрядчиком, исполнителем)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Метод определения цены:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 19 (19д)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Приобретаемое специальное
+оборудование</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">    в том числе:</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">    материальные затраты</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">    страховые взносы на обязательное социальное страхование</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">    общепроизводственные затраты</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       в том числе:</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       - основная заработная плата</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       - дополнительная заработная плата</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Общехозяйственные затраты </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Приложение № 5
 к приказу ФАС России
-от _________________ № ____</t>
-  </si>
-  <si>
-    <t>Пункт
-командировки</t>
-  </si>
-  <si>
-    <t>Продолжительность пребывания в командировке одного работника (дней)</t>
-  </si>
-  <si>
-    <t>в день</t>
-  </si>
-  <si>
-    <t>всего</t>
-  </si>
-  <si>
-    <t>наименование</t>
-  </si>
-  <si>
-    <t>Форма № 16</t>
-  </si>
-  <si>
-    <t>Форма № 18 (18д)</t>
-  </si>
-  <si>
-    <t>Форма № 20 (20д)</t>
-  </si>
-  <si>
-    <t>Материальные затраты - всего:</t>
-  </si>
-  <si>
-    <t>Код по ЕКПС (при наличии)</t>
-  </si>
-  <si>
-    <t>ФНН (при наличии)</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>норма расхода
-на единицу продук-ции</t>
-  </si>
-  <si>
-    <t>№№
-строк</t>
-  </si>
-  <si>
-    <t>Форма № 14</t>
-  </si>
-  <si>
-    <t>Код ЕКПС  (при наличии)</t>
-  </si>
-  <si>
-    <t>Код ЕКПС (при наличии)</t>
-  </si>
-  <si>
-    <t>ФНН
-(при наличии)</t>
-  </si>
-  <si>
-    <t>(НИР (ОКР), ее наименование, шифр или код)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Форма № 15 (15д) НИР (ОКР) </t>
-  </si>
-  <si>
-    <t>Форма № 8 (8д)</t>
-  </si>
-  <si>
-    <t>Форма № 1 (1д)</t>
-  </si>
-  <si>
-    <t>0100</t>
-  </si>
-  <si>
-    <t>0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   приобретение полуфабрикатов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   возвратные отходы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   приобретение комплектующих изделий</t>
-  </si>
-  <si>
-    <t>0102</t>
-  </si>
-  <si>
-    <t>0103</t>
-  </si>
-  <si>
-    <t>0104</t>
-  </si>
-  <si>
-    <t>0105</t>
-  </si>
-  <si>
-    <t>0106</t>
-  </si>
-  <si>
-    <t>0107</t>
-  </si>
-  <si>
-    <t>0108</t>
-  </si>
-  <si>
-    <t>0109</t>
-  </si>
-  <si>
-    <t>0110</t>
-  </si>
-  <si>
-    <t>0200</t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>0202</t>
-  </si>
-  <si>
-    <t>Затраты на оплату труда - всего:</t>
-  </si>
-  <si>
-    <t>0300</t>
-  </si>
-  <si>
-    <t>0400</t>
-  </si>
-  <si>
-    <t>0401</t>
-  </si>
-  <si>
-    <t>0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   затраты на подготовку и освоение новых видов продукции </t>
-  </si>
-  <si>
-    <t>0500</t>
-  </si>
-  <si>
-    <t>0600</t>
-  </si>
-  <si>
-    <t>0700</t>
-  </si>
-  <si>
-    <t>0800</t>
-  </si>
-  <si>
-    <t>0900</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>Затраты на командировки</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>Производственная себестоимость
-(сумма строк 0100, 0200, 0300, 0400, 0500 – 1200)</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>1700</t>
-  </si>
-  <si>
-    <t>Пусковые затраты, всего:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подготовка и освоение видов продукции, производство которой возобновляется после длительного перерыва (два календарных года и более), всего: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    затраты на оплату труда - всего:</t>
-  </si>
-  <si>
-    <t>Подготовка и освоение производства новых видов продукции, всего:</t>
-  </si>
-  <si>
-    <t>Таблица 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">первичные документы (номер и дата договора, протокола, счета, иное) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">обоснование цены поставки </t>
-  </si>
-  <si>
-    <t>Наименование статей
-затрат</t>
-  </si>
-  <si>
-    <t>единица измерения</t>
-  </si>
-  <si>
-    <t>Мероприятия по распределению (направлению) прибыли</t>
-  </si>
-  <si>
-    <t>страховые взносы на обязательное страхование от несчастных случаев на производстве и профессиональных заболеваний</t>
-  </si>
-  <si>
-    <t>норма расхода на единицу продукции</t>
-  </si>
-  <si>
-    <t>Вид работ</t>
-  </si>
-  <si>
-    <t>Коммерческие (внепроизводственные) затраты</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>1900</t>
-  </si>
-  <si>
-    <t>Смета и расчет</t>
-  </si>
-  <si>
-    <t>7.1.1</t>
-  </si>
-  <si>
-    <t>7.1.2</t>
-  </si>
-  <si>
-    <t>3.1.1</t>
-  </si>
-  <si>
-    <t>3.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(штука, комплект, этап, единица работы (услуги), иное)        </t>
-  </si>
-  <si>
-    <t>Предложено организацией-поставщиком
-(подрядчиком, исполнителем)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">организация-поставщик (подрядчик, исполнитель) </t>
-  </si>
-  <si>
-    <t>количество дней в пути</t>
-  </si>
-  <si>
-    <t>Календарный год или
-срок действия цены</t>
-  </si>
-  <si>
-    <t>- научные, инженерные и технические работники</t>
-  </si>
-  <si>
-    <t>Отношение общепроизводственных затрат к базе распределения, %</t>
-  </si>
-  <si>
-    <t>Таблица 2</t>
-  </si>
-  <si>
-    <t>Форма № 10 (10д)</t>
-  </si>
-  <si>
-    <t>Форма № 13</t>
-  </si>
-  <si>
-    <t>Форма № 17 (17д)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   тара и упаковка</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (наименование, шифр товара, работы, услуги) </t>
-  </si>
-  <si>
-    <t>Себестоимость реализованной продукции</t>
-  </si>
-  <si>
-    <t>метод определения цены</t>
-  </si>
-  <si>
-    <t>20.1</t>
-  </si>
-  <si>
-    <t>20.2</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>Остаточная стоимость оснастки по состоянию на __.___._____</t>
-  </si>
-  <si>
-    <t>Стоимость приобретенной оснастки</t>
-  </si>
-  <si>
-    <t>Стоимость вновь изготовленной оснастки - всего:</t>
-  </si>
-  <si>
-    <t>Стоимость ремонта и поддержания в рабочем состоянии оснастки - всего:</t>
-  </si>
-  <si>
-    <t>Себестоимость товарной продукции</t>
-  </si>
-  <si>
-    <t>Вид цены</t>
-  </si>
-  <si>
-    <t>Техническая документация (ТУ, ТЗ, КД, ГОСТ, иное), орган и дата утверждения</t>
-  </si>
-  <si>
-    <t>Техническая документация</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   затраты на изделия собственного производства</t>
-  </si>
-  <si>
-    <t>обосновывающие документы</t>
-  </si>
-  <si>
-    <t>Возвратные отходы (вычитаются):</t>
-  </si>
-  <si>
-    <t>расход на единицу продукции</t>
-  </si>
-  <si>
-    <t>13.1</t>
-  </si>
-  <si>
-    <t>13.2</t>
-  </si>
-  <si>
-    <t>Покупные полуфабрикаты:</t>
-  </si>
-  <si>
-    <t>затраты (руб.)</t>
-  </si>
-  <si>
-    <t>затраты
-(руб.)</t>
-  </si>
-  <si>
-    <t>основная заработная плата (руб.)</t>
-  </si>
-  <si>
-    <r>
-      <t>применяемый индекс цен</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                        Структура дополнительной заработной платы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)                                       (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">№ п/п </t>
-  </si>
-  <si>
-    <t>Всего затрат (руб.)</t>
-  </si>
-  <si>
-    <t>Норма погашения на единицу изделия (руб.)</t>
-  </si>
-  <si>
-    <t>Остаток
-к погашению (руб.)</t>
-  </si>
-  <si>
-    <t>затрат на специальную технологическую оснастку</t>
-  </si>
-  <si>
-    <t>Основания для включения затрат</t>
-  </si>
-  <si>
-    <t>всего
-(руб.)</t>
-  </si>
-  <si>
-    <t>затраты по найму жилого помещения
-(руб.)</t>
-  </si>
-  <si>
-    <t>проезд (в оба конца)
-(руб.)</t>
-  </si>
-  <si>
-    <t>другие
+от _________________ № ____</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Пункт
+командировки</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Продолжительность пребывания в командировке одного работника (дней)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>в день</x:t>
+  </x:si>
+  <x:si>
+    <x:t>всего</x:t>
+  </x:si>
+  <x:si>
+    <x:t>наименование</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 18 (18д)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 20 (20д)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Материальные затраты - всего:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Код по ЕКПС (при наличии)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ФНН (при наличии)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>норма расхода
+на единицу продук-ции</x:t>
+  </x:si>
+  <x:si>
+    <x:t>№№
+строк</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Код ЕКПС  (при наличии)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Код ЕКПС (при наличии)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ФНН
+(при наличии)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(НИР (ОКР), ее наименование, шифр или код)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Форма № 15 (15д) НИР (ОКР) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 8 (8д)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 1 (1д)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0101</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   приобретение полуфабрикатов</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   возвратные отходы</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   приобретение комплектующих изделий</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты на оплату труда - всего:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0401</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0402</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   затраты на подготовку и освоение новых видов продукции </x:t>
+  </x:si>
+  <x:si>
+    <x:t>0500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты на командировки</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>!!!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Пусковые затраты, всего:</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Подготовка и освоение видов продукции, производство которой возобновляется после длительного перерыва (два календарных года и более), всего: </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">    затраты на оплату труда - всего:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подготовка и освоение производства новых видов продукции, всего:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Таблица 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">первичные документы (номер и дата договора, протокола, счета, иное) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">обоснование цены поставки </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наименование статей
+затрат</x:t>
+  </x:si>
+  <x:si>
+    <x:t>единица измерения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Мероприятия по распределению (направлению) прибыли</x:t>
+  </x:si>
+  <x:si>
+    <x:t>страховые взносы на обязательное страхование от несчастных случаев на производстве и профессиональных заболеваний</x:t>
+  </x:si>
+  <x:si>
+    <x:t>норма расхода на единицу продукции</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вид работ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Коммерческие (внепроизводственные) затраты</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Смета и расчет</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(штука, комплект, этап, единица работы (услуги), иное)        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Предложено организацией-поставщиком
+(подрядчиком, исполнителем)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">организация-поставщик (подрядчик, исполнитель) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>количество дней в пути</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Календарный год или
+срок действия цены</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- научные, инженерные и технические работники</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отношение общепроизводственных затрат к базе распределения, %</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Таблица 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 10 (10д)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 17 (17д)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   тара и упаковка</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> (наименование, шифр товара, работы, услуги) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Себестоимость реализованной продукции</x:t>
+  </x:si>
+  <x:si>
+    <x:t>метод определения цены</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Остаточная стоимость оснастки по состоянию на __.___._____</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Стоимость приобретенной оснастки</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Стоимость вновь изготовленной оснастки - всего:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Стоимость ремонта и поддержания в рабочем состоянии оснастки - всего:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Себестоимость товарной продукции</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вид цены</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Техническая документация (ТУ, ТЗ, КД, ГОСТ, иное), орган и дата утверждения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Техническая документация</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   затраты на изделия собственного производства</x:t>
+  </x:si>
+  <x:si>
+    <x:t>обосновывающие документы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Возвратные отходы (вычитаются):</x:t>
+  </x:si>
+  <x:si>
+    <x:t>расход на единицу продукции</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Покупные полуфабрикаты:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>затраты (руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>затраты
+(руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>основная заработная плата (руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>применяемый индекс цен</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="10"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>4</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                        Структура дополнительной заработной платы</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)                                       (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">№ п/п </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Всего затрат (руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Норма погашения на единицу изделия (руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Остаток
+к погашению (руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>затрат на специальную технологическую оснастку</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Основания для включения затрат</x:t>
+  </x:si>
+  <x:si>
+    <x:t>всего
+(руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>затраты по найму жилого помещения
+(руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>проезд (в оба конца)
+(руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>другие
 расходы
-(руб.)</t>
-  </si>
-  <si>
-    <t>Затраты (руб.)</t>
-  </si>
-  <si>
-    <t>Величина прибыли (руб.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1 
-</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>11.3</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   транспортно-заготовительные затраты</t>
-  </si>
-  <si>
-    <t>ИТОГО (строка 1 + строка 2)</t>
-  </si>
-  <si>
-    <t>Отчисления от фонда оплаты труда:</t>
-  </si>
-  <si>
-    <t>ВСЕГО</t>
-  </si>
-  <si>
-    <t>Затраты на единицу с учетом ставки погашения на единицу изделия</t>
-  </si>
-  <si>
-    <t>Вид транспортно-заготовительных затрат</t>
-  </si>
-  <si>
-    <t>транспортно-заготовительные затраты (%)</t>
-  </si>
-  <si>
-    <t>Рентабельность (%)</t>
-  </si>
-  <si>
-    <t>Доля от общей массы прибыли (%)</t>
-  </si>
-  <si>
-    <t>Количество изделий (комплектов и другое), штук</t>
-  </si>
-  <si>
-    <t>Количество изделий (комплектов и другое) с учетом периода использования, штук</t>
-  </si>
-  <si>
-    <t>Нормативный срок освоения (месяцев, лет)</t>
-  </si>
-  <si>
-    <t>Количество командируемых работников (чел.)</t>
-  </si>
-  <si>
-    <t>в том числе по государственным контрактам (контрактам) ГОЗ</t>
-  </si>
-  <si>
-    <t>в том числе на экспорт</t>
-  </si>
-  <si>
-    <t>14.</t>
-  </si>
-  <si>
-    <t>15.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. </t>
-  </si>
-  <si>
-    <t>Выручка (нетто) от реализации продукции (без НДС)</t>
-  </si>
-  <si>
-    <t>Финансовый результат (+ прибыль/ - убыток) 
-от реализации продукции</t>
-  </si>
-  <si>
-    <t>- рабочие-сдельщики;</t>
-  </si>
-  <si>
-    <t>- рабочие-повременщики;</t>
-  </si>
-  <si>
-    <t>- административно-управленческий персонал;</t>
-  </si>
-  <si>
-    <t>Основная заработная плата работников предприятия, всего:</t>
-  </si>
-  <si>
-    <t>Среднесписочная численность 
-работников предприятия, всего</t>
-  </si>
-  <si>
-    <t>среднесписочная численность работников,
-относящихся к общепроизводственным затратам:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   пусковые затраты</t>
-  </si>
-  <si>
-    <r>
-      <t>Наименование выплат</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Наименование статей</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>предложено организацией-поставщиком (подрядчиком, исполнителем)</t>
-  </si>
-  <si>
-    <t>Отношение коммерческих (внепроизводственных) затрат к базе распределения, %</t>
-  </si>
-  <si>
-    <t>РАСШИФРОВКА
-затрат на специальное оборудование для научных (экспериментальных) работ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Планируемая организация-поставщик (подрядчик, исполнитель) </t>
-  </si>
-  <si>
-    <r>
-      <t>стоимость</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">(руб.) </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(гр.4*гр.5+гр.4*гр.5*гр.6)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">в том числе: </t>
-  </si>
-  <si>
-    <t>в том числе по государственным
-контрактам (контрактам) ГОЗ</t>
-  </si>
-  <si>
-    <t>среднесписочная численность работников,
-относящихся к общехозяйственным затратам / административно-управленческим расходам:</t>
-  </si>
-  <si>
-    <t>работники, относящиеся к 
-общепроизводственным затратам:</t>
-  </si>
-  <si>
-    <t>общехозяйственным затратам / 
-административно-управленческим расходам:</t>
-  </si>
-  <si>
-    <t>общепроизводственным затратам:</t>
-  </si>
-  <si>
-    <t>Норматив общепроизводственных затрат</t>
-  </si>
-  <si>
-    <t>Общехозяйственные затраты / административно-управленческие расходы</t>
-  </si>
-  <si>
-    <t>Норматив общехозяйственных затрат / 
-административно-управленческих расходов</t>
-  </si>
-  <si>
-    <t>Норматив транспортно-заготовительных затрат</t>
-  </si>
-  <si>
-    <t>Норматив коммерческих (внепроизводственных) затрат</t>
-  </si>
-  <si>
-    <t>Заказчик</t>
-  </si>
-  <si>
-    <t>Исполнитель</t>
-  </si>
-  <si>
-    <t>затратный</t>
-  </si>
-  <si>
-    <t>Главный бухгалтер ООО "Бенефит Бизнес"</t>
-  </si>
-  <si>
-    <t>ВСЕГО по разделу:</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>применяемый индекс цен</t>
-  </si>
-  <si>
-    <t>Применяемый индекс цен</t>
-  </si>
-  <si>
-    <r>
-      <t>в том числе</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <t>Общехозяйственные затраты</t>
-  </si>
-  <si>
-    <t>Расчет и обоснование прибыли</t>
-  </si>
-  <si>
-    <t>Затраты на оплату труда АУП</t>
-  </si>
-  <si>
-    <t>(тыс. руб.)</t>
-  </si>
-  <si>
-    <t>Страховые взносы АУП</t>
-  </si>
-  <si>
-    <t>Аренда ОС</t>
-  </si>
-  <si>
-    <t>Имущественный налог</t>
-  </si>
-  <si>
-    <t>Командировочные расходы</t>
-  </si>
-  <si>
-    <t>Содержание и ремонт сооружений и оборудования</t>
-  </si>
-  <si>
-    <t>Инструмент, инвентарь, оснастка</t>
-  </si>
-  <si>
-    <t>Оказанные услуги</t>
-  </si>
-  <si>
-    <t>ГСМ</t>
-  </si>
-  <si>
-    <t>Услуги связи и интернета</t>
-  </si>
-  <si>
-    <t>Услуги почтовой связи</t>
-  </si>
-  <si>
-    <t>транспортные расходы</t>
-  </si>
-  <si>
-    <t>прочие</t>
-  </si>
-  <si>
-    <t>Значение</t>
-  </si>
-  <si>
-    <t>Основание</t>
-  </si>
-  <si>
-    <t>руб/мес.</t>
-  </si>
-  <si>
-    <t>Принято государственным заказчиком / заказчиком</t>
-  </si>
-  <si>
-    <t>Цена, предлагаемая отраслевым органом
-(без НДС, руб.)</t>
-  </si>
-  <si>
-    <t>Цена, принятая государственным заказчиком / заказчиком
-(без НДС, руб.)</t>
-  </si>
-  <si>
-    <t>Предложено отраслевым органом</t>
-  </si>
-  <si>
-    <t>Предложено государственным заказчиком / заказчиком</t>
-  </si>
-  <si>
-    <t>Применяе-мый индекс цен</t>
-  </si>
-  <si>
-    <t>Основная заработная плата основных работников</t>
-  </si>
-  <si>
-    <t>База распределения коммерческих (внепроизводственных) затрат (______________________________________)</t>
-  </si>
-  <si>
-    <t>Затраты на специальное оборудование для научных (экспериментальных) работ</t>
-  </si>
-  <si>
-    <t>Проценты по кредитам</t>
-  </si>
-  <si>
-    <t>Административно-управленческие расходы</t>
-  </si>
-  <si>
-    <t>Наименование товаров, работ, услуг</t>
-  </si>
-  <si>
-    <t>трудоемкость  н./час.</t>
-  </si>
-  <si>
-    <t>стоимость
-за 1 час рабочего времени (руб.)</t>
-  </si>
-  <si>
-    <t>технологическая трудоемкость единицы продукции
-(н./час.)</t>
-  </si>
-  <si>
-    <t>Себестоимость продукции
-(сумма строк 1300, 1400, 1500, 1600)</t>
-  </si>
-  <si>
-    <t>Процедура:</t>
-  </si>
-  <si>
-    <t>Примечание:</t>
-  </si>
-  <si>
-    <r>
-      <t>Полное наименование</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>товара, работы, услуги, шифр</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Код ОКП/
-ОКПД2</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">  (подпись)                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  (подпись)  </t>
-  </si>
-  <si>
-    <t>Цена, заявленная организацией-
+(руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты (руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Величина прибыли (руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">6.1 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   транспортно-заготовительные затраты</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ИТОГО (строка 1 + строка 2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отчисления от фонда оплаты труда:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ВСЕГО</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты на единицу с учетом ставки погашения на единицу изделия</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вид транспортно-заготовительных затрат</x:t>
+  </x:si>
+  <x:si>
+    <x:t>транспортно-заготовительные затраты (%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Рентабельность (%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Доля от общей массы прибыли (%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Количество изделий (комплектов и другое), штук</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Количество изделий (комплектов и другое) с учетом периода использования, штук</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Нормативный срок освоения (месяцев, лет)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Количество командируемых работников (чел.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>в том числе по государственным контрактам (контрактам) ГОЗ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>в том числе на экспорт</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Выручка (нетто) от реализации продукции (без НДС)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Финансовый результат (+ прибыль/ - убыток) 
+от реализации продукции</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- рабочие-сдельщики;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- рабочие-повременщики;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>- административно-управленческий персонал;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Основная заработная плата работников предприятия, всего:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Среднесписочная численность 
+работников предприятия, всего</x:t>
+  </x:si>
+  <x:si>
+    <x:t>среднесписочная численность работников,
+относящихся к общепроизводственным затратам:</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   пусковые затраты</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Наименование выплат</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>6</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Наименование статей</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="10"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>2</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>предложено организацией-поставщиком (подрядчиком, исполнителем)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отношение коммерческих (внепроизводственных) затрат к базе распределения, %</x:t>
+  </x:si>
+  <x:si>
+    <x:t>РАСШИФРОВКА
+затрат на специальное оборудование для научных (экспериментальных) работ</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Планируемая организация-поставщик (подрядчик, исполнитель) </x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>стоимость</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">3 </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">(руб.) </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:strike/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>(гр.4*гр.5+гр.4*гр.5*гр.6)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">в том числе: </x:t>
+  </x:si>
+  <x:si>
+    <x:t>в том числе по государственным
+контрактам (контрактам) ГОЗ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>среднесписочная численность работников,
+относящихся к общехозяйственным затратам / административно-управленческим расходам:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>работники, относящиеся к 
+общепроизводственным затратам:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>общехозяйственным затратам / 
+административно-управленческим расходам:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>общепроизводственным затратам:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Норматив общепроизводственных затрат</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Общехозяйственные затраты / административно-управленческие расходы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Норматив общехозяйственных затрат / 
+административно-управленческих расходов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Норматив транспортно-заготовительных затрат</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Норматив коммерческих (внепроизводственных) затрат</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Заказчик</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Исполнитель</x:t>
+  </x:si>
+  <x:si>
+    <x:t>затратный</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Главный бухгалтер ООО "Бенефит Бизнес"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ВСЕГО по разделу:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>применяемый индекс цен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Применяемый индекс цен</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>в том числе</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="10"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>:</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Общехозяйственные затраты</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Расчет и обоснование прибыли</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты на оплату труда АУП</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(тыс. руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Страховые взносы АУП</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Аренда ОС</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Имущественный налог</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Командировочные расходы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Содержание и ремонт сооружений и оборудования</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Инструмент, инвентарь, оснастка</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказанные услуги</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ГСМ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Услуги связи и интернета</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Услуги почтовой связи</x:t>
+  </x:si>
+  <x:si>
+    <x:t>транспортные расходы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>прочие</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Значение</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Основание</x:t>
+  </x:si>
+  <x:si>
+    <x:t>руб/мес.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Принято государственным заказчиком / заказчиком</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Цена, предлагаемая отраслевым органом
+(без НДС, руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Цена, принятая государственным заказчиком / заказчиком
+(без НДС, руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Предложено отраслевым органом</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Предложено государственным заказчиком / заказчиком</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Применяе-мый индекс цен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Основная заработная плата основных работников</x:t>
+  </x:si>
+  <x:si>
+    <x:t>База распределения коммерческих (внепроизводственных) затрат (______________________________________)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты на специальное оборудование для научных (экспериментальных) работ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Проценты по кредитам</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Административно-управленческие расходы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наименование товаров, работ, услуг</x:t>
+  </x:si>
+  <x:si>
+    <x:t>трудоемкость  н./час.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>стоимость
+за 1 час рабочего времени (руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>технологическая трудоемкость единицы продукции
+(н./час.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Себестоимость продукции
+(сумма строк 1300, 1400, 1500, 1600)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Процедура:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Примечание:</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Полное наименование</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="14"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="14"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>товара, работы, услуги, шифр</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Код ОКП/
+ОКПД2</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="14"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  (подпись)                     </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  (подпись)  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Цена, заявленная организацией-
 поставщиком (подрядчиком, исполнителем)
-(без НДС, руб.)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Цена продукции (без НДС)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(сумма строк 1700, 1800)</t>
-    </r>
-  </si>
-  <si>
-    <t>(подпись)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">первичные док-ты (номер и дата договора, протокола, счета, иное) </t>
-  </si>
-  <si>
-    <t>из транспортно-заготовительных затрат на:</t>
-  </si>
-  <si>
-    <t>База распределения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(наименование организации - поставщика (подрядчика, исполнителя)) </t>
-  </si>
-  <si>
-    <t>ООО "Бенефит-Бизнес"</t>
-  </si>
-  <si>
-    <t>цена за единицу измерения (руб.)</t>
-  </si>
-  <si>
-    <t>ООО "Бенефит Бизнес"</t>
-  </si>
-  <si>
-    <t>Сведения по затратам на оплату труда:</t>
-  </si>
-  <si>
-    <t>стоимость нормо-часа ИТР конструкторских подразделений</t>
-  </si>
-  <si>
-    <t>стоимость нормо-часа основных работников</t>
-  </si>
-  <si>
-    <t>Форма № 4</t>
-  </si>
-  <si>
-    <t>Форма № 5</t>
-  </si>
-  <si>
-    <t>Форма № 6</t>
-  </si>
-  <si>
-    <t>Форма № 7 (7д) НИР (ОКР)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (НИР, ОКР, ее наименование, шифр или код)</t>
-  </si>
-  <si>
-    <t>Наименование работ (услуг) (шифр)</t>
-  </si>
-  <si>
-    <t>Основание 
+(без НДС, руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">Цена продукции (без НДС)
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="12"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>(сумма строк 1700, 1800)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>(подпись)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">первичные док-ты (номер и дата договора, протокола, счета, иное) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>из транспортно-заготовительных затрат на:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>База распределения</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(наименование организации - поставщика (подрядчика, исполнителя)) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ООО "Бенефит-Бизнес"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>цена за единицу измерения (руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ООО "Бенефит Бизнес"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сведения по затратам на оплату труда:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>стоимость нормо-часа ИТР конструкторских подразделений</x:t>
+  </x:si>
+  <x:si>
+    <x:t>стоимость нормо-часа основных работников</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 7 (7д) НИР (ОКР)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> (НИР, ОКР, ее наименование, шифр или код)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наименование работ (услуг) (шифр)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Основание 
 (ТТТ (ТТ), 
 ТЗ (ТТЗ, ЧТЗ)
-на НИР (ОКР))</t>
-  </si>
-  <si>
-    <t>Сроки исполнения</t>
-  </si>
-  <si>
-    <t>Обоснование цены работ (услуг)</t>
-  </si>
-  <si>
-    <t>6.1.1</t>
-  </si>
-  <si>
-    <t>6.1.2</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>ИТОГО по этапу</t>
-  </si>
-  <si>
-    <t>Форма № 9 (9д) НИР (ОКР)</t>
-  </si>
-  <si>
-    <t>Наименование
-этапа, состав работ по этапу</t>
-  </si>
-  <si>
-    <t>Срок выполнения этапа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">основная заработная плата
+на НИР (ОКР))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сроки исполнения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Обоснование цены работ (услуг)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ИТОГО по этапу</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 9 (9д) НИР (ОКР)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наименование
+этапа, состав работ по этапу</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Срок выполнения этапа</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">основная заработная плата
 (гр.6*гр.7)
-</t>
-  </si>
-  <si>
-    <t>в том числе доплаты и надбавки, предусмотренные законодательством Российской Федерации, относимые к основной заработной плате</t>
-  </si>
-  <si>
-    <t>начисления, обусловленные
- районным регулированием</t>
-  </si>
-  <si>
-    <t>начисления за работу в условиях, отклоняющихся от нормальных</t>
-  </si>
-  <si>
-    <t>специальные надбавки при 
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>в том числе доплаты и надбавки, предусмотренные законодательством Российской Федерации, относимые к основной заработной плате</x:t>
+  </x:si>
+  <x:si>
+    <x:t>начисления, обусловленные
+ районным регулированием</x:t>
+  </x:si>
+  <x:si>
+    <x:t>начисления за работу в условиях, отклоняющихся от нормальных</x:t>
+  </x:si>
+  <x:si>
+    <x:t>специальные надбавки при 
 выполнении работ, оказании услуг
- в командировках на территорию иностранных государств, необходимость которых определена требованиями государственного заказчика (заказчика)</t>
-  </si>
-  <si>
-    <t>Трудоемкость и заработная плата, учтенные при расчете цены</t>
-  </si>
-  <si>
-    <t>начисления стимулирующего характера</t>
-  </si>
-  <si>
-    <t>Первый заместитель Генерального директора ООО "Бенефит Бизнес"</t>
-  </si>
-  <si>
-    <t>годовой объем производства
-(штуки)</t>
-  </si>
-  <si>
-    <t>основная заработная плата основных работников                                           (гр.9*гр.11)</t>
-  </si>
-  <si>
-    <t>Плановая (прогнозная) калькуляция затрат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">оплата работ и услуг сторонних организаций производственного характера </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Затраты по работам (услугам), выполняемым (оказываемым) сторонними организациями </t>
-  </si>
-  <si>
-    <t>Прочие прямые затраты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  (подпись)                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)                                                                            (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)                                                                                 (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>______________                        Барышева И.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)                                                                        (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>_________________                 Барышева И.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)                                                                             </t>
-  </si>
-  <si>
-    <t>_____________________                                          Крутиков П.Ю.</t>
-  </si>
-  <si>
-    <t>______________________       Барышева И.М.</t>
-  </si>
-  <si>
-    <t>______________                       Барышева И.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      (подпись)                        </t>
-  </si>
-  <si>
-    <t>____________                                          Барышева И.М.</t>
-  </si>
-  <si>
-    <t>_______________                   Барышева И.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)                                                    (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)                                                        (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)                                                                                         </t>
-  </si>
-  <si>
-    <t>_______________                  Барышева И.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)                                     (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>________________                                                Крутиков П.Ю.</t>
-  </si>
-  <si>
-    <t>___________________               Барышева И.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ______________                Барышева И.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>______________                                                   Крутиков П.Ю.</t>
-  </si>
-  <si>
-    <t>___________________                   Барышева И.М.</t>
-  </si>
-  <si>
-    <t>___________________                      Крутиков П.Ю.</t>
-  </si>
-  <si>
-    <t>______________                                          Крутиков П.Ю.</t>
-  </si>
-  <si>
-    <t>_______________                           Крутиков П.Ю.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)                                                      (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)                                                                          (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>______________                                     Крутиков П.Ю.</t>
-  </si>
-  <si>
-    <t>______________                                 Крутиков П.Ю.</t>
-  </si>
-  <si>
-    <t>_______________                Барышева И.М.</t>
-  </si>
-  <si>
-    <t>______________                                              Крутиков П.Ю.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)                                                                             (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>технологическая трудоемкость единицы продукции (н./час.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (наименование подразделения / предприятия) </t>
-  </si>
-  <si>
-    <t>специальных затрат на</t>
-  </si>
-  <si>
-    <t>Квалификационная группа основных работников, привлекаемых
-к выполнению этапа</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Заказчик:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст.426 НК РФ </t>
-  </si>
-  <si>
-    <t>Генеральный  директор ООО "Бенефит Бизнес"</t>
-  </si>
-  <si>
-    <t>_________________________                  П.В. Ильичев</t>
-  </si>
-  <si>
-    <t>ФЗ № 419 от 19.12.2016 г.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> кроме того дополнительная заработная плата</t>
-  </si>
-  <si>
-    <t>Индекс цен</t>
-  </si>
-  <si>
-    <t>Всего                  (тыс. руб.)</t>
-  </si>
-  <si>
-    <t>Всего                     (тыс. руб.)</t>
-  </si>
-  <si>
-    <t>численность</t>
-  </si>
-  <si>
-    <t>Дополнительная заработная плата  АУП</t>
-  </si>
-  <si>
-    <t>Амортизация основных средств</t>
-  </si>
-  <si>
-    <t>Прочие, в т.ч.:</t>
-  </si>
-  <si>
-    <t>База распределения общепроизводственных расходов*</t>
-  </si>
-  <si>
-    <t>средняя зарплата</t>
-  </si>
-  <si>
-    <t>Отношение общепроизводственных расходов к базе их распределения, %</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>11.</t>
-  </si>
-  <si>
-    <t>12.</t>
-  </si>
-  <si>
-    <t>13.</t>
-  </si>
-  <si>
-    <t>Затраты на приобретение покупных полуфабрикатов не предусмотрены</t>
-  </si>
-  <si>
-    <t>Транспортно-заготовительные затраты  не предусмотрены</t>
-  </si>
-  <si>
-    <t>технологическая трудоемкость всего (гр.8*гр.10)</t>
-  </si>
-  <si>
-    <t>Затраты  не предусмотрены</t>
-  </si>
-  <si>
-    <t>Специальное оборудование, изготавливаемое собственными силами</t>
-  </si>
-  <si>
-    <t>Форма № 3 (3д)</t>
-  </si>
-  <si>
-    <t>(штука, комплект, этап, единица работы (услуги), иное)</t>
-  </si>
-  <si>
-    <t>№№ строк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   приобретение сырья, материалов и вспомогательных материалов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   оплата работ и услуг сторонних организаций производственного характера </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   дополнительная заработная плата</t>
-  </si>
-  <si>
-    <t>Цена продукции (без НДС)
-(сумма строк 1700, 1800)</t>
-  </si>
-  <si>
-    <t>М.П. (при наличии)</t>
-  </si>
-  <si>
-    <t>Отчетная калькуляция затрат</t>
-  </si>
-  <si>
-    <t>Трудоемкость (н/час)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  (должность)       (подпись)                    (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>Трудоемкость (н./час.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   топливо на технологические цели</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   энергия на технологические цели</t>
-  </si>
-  <si>
-    <t>Затраты по работам (услугам), выполняемым (оказываемым) сторонними организациями</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*  Затраты на приобретение покупных полуфабрикатов отсутствуют и не предусмотрены. </t>
-  </si>
-  <si>
-    <t>Затраты на приобретение покупных полуфабрикатов отсутствуют</t>
-  </si>
-  <si>
-    <t>*  Транспортно-заготовительные затраты отсутствуют и не предусмотрены</t>
-  </si>
-  <si>
-    <t>*  Затраты  отсутствуют и не предусмотрены</t>
-  </si>
-  <si>
-    <t>Специальные затраты  отсутствуют и не предусмотрены</t>
-  </si>
-  <si>
-    <t>Специальные затраты отсутствуют и  не предусмотрены</t>
-  </si>
-  <si>
-    <t>*  Затраты на специальное оборудование для научных (экспериментальных) работ  отсутствуют и не предусмотрены</t>
-  </si>
-  <si>
-    <t>Затраты на специальное оборудование для научных (экспериментальных) работ отсутствуют и не предусмотрены</t>
-  </si>
-  <si>
-    <t>Затраты на специальную технологическую оснастку отсутствуют и не предусмотрены</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Затраты  на подготовку и освоение производства отсутствуют и не предусмотрены</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Генеральный директор </t>
-  </si>
-  <si>
-    <t>Военный представитель:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_____________   __________   </t>
-  </si>
-  <si>
-    <t>Количество привлека-емых специалис-тов</t>
-  </si>
-  <si>
-    <t>План</t>
-  </si>
-  <si>
-    <t>л.</t>
-  </si>
-  <si>
-    <t>19.20.21.300</t>
-  </si>
-  <si>
-    <t>приобретение сырья, материалов и вспомогательных материалов (топлива)</t>
-  </si>
-  <si>
-    <t>41.20.40.900</t>
-  </si>
-  <si>
-    <t>Вспомогательные материалы</t>
-  </si>
-  <si>
-    <t>II.</t>
-  </si>
-  <si>
-    <t>ИТОГО по разделу I</t>
-  </si>
-  <si>
-    <t>комплекс услуг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Код ОКП / ОКПД2 </t>
-  </si>
-  <si>
-    <t>факт на 2022г.</t>
-  </si>
-  <si>
-    <t>______________________                                              Крутиков П.Ю.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  (подпись)                                                       (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>______________                         Крутиков П.Ю.</t>
-  </si>
-  <si>
-    <t>_________________                                                                 Крутиков П.Ю.</t>
-  </si>
-  <si>
-    <t>______________________      Барышева И.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                    (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>________________                                                         Крутиков П.Ю.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                              (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>№                                                                                                                   п/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>№                                                                              п/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)                                                                 (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>_______________                                          Барышева И.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)                                                                                         (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)                                                       (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>Выплаты, пропорциональные ОЗП непосредственных исполнителей                                                               при выполнении работ по теме:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> в составе: оплата ежегодных оплачиваемых отпусков </t>
-  </si>
-  <si>
-    <t>*) Дополнительная заработная плата начисляется Исполнителем на основании принятого с 01.06.21 г. протокола согласования базовых эконмических показателей, утвержденного                                                                                                           Закл. Исх. № 4294/826 от 28.05.2021 г.</t>
-  </si>
-  <si>
-    <t>________________                                  Крутиков П.Ю.</t>
-  </si>
-  <si>
-    <t>________________                    Барышева И.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>____________________                                    Крутиков П.Ю.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>*  Коммерческие (внепроизводственные) затраты отсутствуют и не предусмотрены</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Коммерческие (внепроизводственные) затраты  отсутствуют и не предусмотрены</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(подпись)                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>(подпись)                                                                                                      (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>Единица                                                                                         измерения</t>
-  </si>
-  <si>
-    <t>______________                                         Крутиков П.Ю.</t>
-  </si>
-  <si>
-    <t>__________________________     Ильичев П.В.</t>
-  </si>
-  <si>
-    <t>__________________                 Барышева И.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              (подпись)                                                 (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>ИТОГО суммарно                                             по затратам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>Код ЕКПС                                                                   (при наличии)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      (подпись)                                                                                                  (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>Форма № 11д</t>
-  </si>
-  <si>
-    <t>Форма № 21</t>
-  </si>
-  <si>
-    <t>Сведения об объемах поставки продукции, в том числе по государственному оборонному заказу, включая экспортные поставки</t>
-  </si>
-  <si>
-    <t>Форма № 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                 (подпись)                                               (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>средний показатель по фактически выплаченным страховым взносам                                                                                              в 2020 году в связи с применением                                ФЗ № 209 от 24.07.2007 с дополнением  подпункт 17 пункта 1, пункта 2.1, статьи                                               427 НФ РФ и ФЗ № 1092 от 01.04.2020 г.</t>
-  </si>
-  <si>
-    <t>Наименование                                               сторонних                                              организаций</t>
-  </si>
-  <si>
-    <t>Всего работ услуг</t>
-  </si>
-  <si>
-    <t>_____________                  Барышева И.М.</t>
-  </si>
-  <si>
-    <t>Сырье и основные материалы:</t>
-  </si>
-  <si>
-    <t>ООО "Передавые Платежные Решения" (ООО "ППР")</t>
-  </si>
-  <si>
-    <t>52.23.20.120</t>
-  </si>
-  <si>
-    <t>* затраты отсутствуют и не предусмотрены</t>
-  </si>
-  <si>
-    <t>Факт. Затраты на 2023 г.  (руб.)</t>
-  </si>
-  <si>
-    <t>в т.ч. по государственным контрактам (контрактам) гособорнзаказа (тыс. руб.)</t>
-  </si>
-  <si>
-    <t>привнесенные затраты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">собственные затраты </t>
-  </si>
-  <si>
-    <t>Этап</t>
-  </si>
-  <si>
-    <t xml:space="preserve">№№ строки </t>
-  </si>
-  <si>
-    <t>Собственные</t>
-  </si>
-  <si>
-    <t>Привнесенные</t>
-  </si>
-  <si>
-    <t>приобретение сырья, материалов и вспомогательных материалов</t>
-  </si>
-  <si>
-    <t>приобретение полуфабрикатов</t>
-  </si>
-  <si>
-    <t>возвратные отходы</t>
-  </si>
-  <si>
-    <t>приобретение комплектующих изделий</t>
-  </si>
-  <si>
-    <t>оплата работ и услуг сторонних организаций производтвенного характера</t>
-  </si>
-  <si>
-    <t>транспортно-заготовительные затраты</t>
-  </si>
-  <si>
-    <t>топливо на технологические цели</t>
-  </si>
-  <si>
-    <t>энергия на технологические цели</t>
-  </si>
-  <si>
-    <t>тара и упаковка</t>
-  </si>
-  <si>
-    <t>затраты на изделия собственного производства</t>
-  </si>
-  <si>
-    <t>основная заработная плата</t>
-  </si>
-  <si>
-    <t>Затраты на подготовку и освоение проиводства - всего</t>
-  </si>
-  <si>
-    <t>пусковые затраты</t>
-  </si>
-  <si>
-    <t>затраты на подготовку и освоение новых видов продукции</t>
-  </si>
-  <si>
-    <t>Затраты на специальное оборудование для научных (эксперементальных) работ</t>
-  </si>
-  <si>
-    <t>Коммерческие (производственные) затраты</t>
-  </si>
-  <si>
-    <t>Административно-управенчекие расходы</t>
-  </si>
-  <si>
-    <t>*) Ткблица 2 не заполняется, в связи с отсутствием части прибыли более 25 % от собственных затрат</t>
-  </si>
-  <si>
-    <t>Руководитель экономической службы организации-поставщика</t>
-  </si>
-  <si>
-    <t>НДС по ставке 0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИТОГО с НДС 0% </t>
-  </si>
-  <si>
-    <t>Отчетный период - фактические затраты на __.__.202_г.</t>
-  </si>
-  <si>
-    <t>сопоставление рыночных индикаторов</t>
-  </si>
-  <si>
-    <t>Диски для бензорезов для первичной переработки фрагментов ОЧ РКН</t>
-  </si>
-  <si>
-    <t>Продолжительность пребывания в командировке командиру-емых работников
-(человеко-дни)</t>
-  </si>
-  <si>
-    <t>плановых прочих прямых затрат</t>
-  </si>
-  <si>
-    <t>факт на __.__.202_г.</t>
-  </si>
-  <si>
-    <t>Затратный</t>
-  </si>
-  <si>
-    <t>факт. затраты  на                                               __.__.202_г.</t>
-  </si>
-  <si>
-    <t>1.1.</t>
-  </si>
-  <si>
-    <t>плановых затрат по работам (услугам), выполняемым (оказываемым) сторонними организациями на</t>
-  </si>
-  <si>
-    <t>плановой основной заработной платы и трудовых затрат на</t>
-  </si>
-  <si>
-    <t>Расчет плановых затрат на командировки</t>
-  </si>
-  <si>
-    <t>плановых затрат на приобретение комплектующих изделий на</t>
-  </si>
-  <si>
-    <t>Количество и пункты назначения командировок, продолжительность пребывания в командировках, количество командируемых сотрудников, указанные в данной форме, необходимы для выполнения требований ТЗ в полном объёме и определены с  учётом ранее выполненных (оказанных) аналогичных работ (услуг)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   «Номенклатура, нормы расхода (количество) сырья и материалов, указанные в данной форме, необходимы для выполнения требований ТЗ  в полном объёме и определены  с учётом ранее выполненных (оказанных) аналогичных работ (услуг)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В соответствии со статьей 31.1 Федерального закона от 08.11.2007 N 257-ФЗ "Об автомобильных дорогах и о дорожной деятельности в Российской Федерации и о внесении изменений в отдельные законодательные акты Российской Федерации", в соответствии с п. 1 Постановления Правительства РФ от 14.06.2013 № 504 (в ред. от 18.05.2015 N 474), п. 2 Постановления Правительства РФ от 03.11.2015 № 1191 (в ред. от 27.02.2016 N 139, от 31.01.2017 N 120 (ред. 24.03.2017), от 28.06.2018 N 744, от 29.06.2019 № 843). Тариф на период 01.02.2023 – 31.01.2024 установлен в размере 2,84 руб./км. Размер платы в более поздние периоды подлежит определению с учетом появления информации Росстата о фактическом изменении индекса потребительских цен за указанные в Постановлении Правительства РФ от 29.06.2019 № 843.  </t>
-  </si>
-  <si>
-    <t>среднемесячная основная заработная плата основных работников</t>
-  </si>
-  <si>
-    <t xml:space="preserve">согласовано 4294 ВП МО РФ исх. № 4294/94 от 07.02.2024г. </t>
-  </si>
-  <si>
-    <t>Общехозяйственные затраты (накладные расходы: % от ОЗП  ) / база распределения затрат для производства серийных работ (услуг)</t>
-  </si>
-  <si>
-    <t>Общехозяйственные затраты (накладные расходы: % от ОЗП  ) / база распределения затрат для выполнения ОКР (НИОКР)</t>
-  </si>
-  <si>
-    <t>Отчетный период / период, предшествующий планируемому (год 2023)</t>
-  </si>
-  <si>
-    <t>Планируемый период (год 2025)</t>
-  </si>
-  <si>
-    <t>Отчетный период / период, предшествующий планируемому (2023 г)</t>
-  </si>
-  <si>
-    <t>Отчетный период / период, предшествующий планируемому
-(год 2023г.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     общепроизводственных затрат на 2024  год  по ООО "Бенефит Бизнес"</t>
-  </si>
-  <si>
-    <t>Отчетный период / период, предшествующий планируемому (год 2023 )</t>
-  </si>
-  <si>
-    <t>факт на 2023 г.</t>
-  </si>
-  <si>
-    <t>Смета и расчет
-коммерческих (внепроизводственных) затрат на 2024 год</t>
-  </si>
-  <si>
-    <t>Отчетный период / период, предшествующий планируемому
-(год 2023)</t>
-  </si>
-  <si>
-    <t>факт на 2023г.</t>
-  </si>
-  <si>
-    <t>Затраты отчетного периода / периода, предшествующего планируемому (год 2023 )</t>
-  </si>
-  <si>
-    <t>Затраты отчетного периода / периода, предшествующего планируемому (год 2023) (руб.)</t>
-  </si>
-  <si>
-    <t>затраты
-(на 2023 гг.)</t>
-  </si>
-  <si>
-    <t>Погашено по состоянию на 2023г.
- (руб.)</t>
-  </si>
-  <si>
-    <t>______________________  Крутиков П.Ю.</t>
-  </si>
-  <si>
-    <t>______________________ Барышева И.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              (подпись)                           (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>"_____"______________ 2025г.</t>
-  </si>
-  <si>
-    <t>трудоемкость выполнения работ
-(н/ч)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доплаты и надбавки, предусмотренные законодательством Российской Федерации, относимые к основной заработной плате - начисления, обусловленные
- районным регулированием (районный коэффициент). Принято на основании статьи 316 Трудового кодекса РФ в соответствии с Инструкцией о порядке предоставления социальных гарантий и компенсаций лицам, работающим в районах крайнего севера и в местностях, приравненных к районам крайнего севера. Закон РФ от 19.02.1993г. № 4520-1 "О государственных гарантиях и компенсациях для лиц, работающих и проживающих в районах крайнего севера и приравненных к ним местностях.             </t>
-  </si>
-  <si>
-    <r>
-      <t>затраты предыдущих периодов
-(на __.__.____ г.)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <t>ООО "МНГС"</t>
-  </si>
-  <si>
-    <t>Дизельное топливо в грузовой автотранспорт предприятия для перевозки контейнеров с фрагментами ОЧ РКН по маршруту: г. Архангельск, Архангельской обл. - г. Электрогорск, МО, за 2 оборотных рейса</t>
-  </si>
-  <si>
-    <t>19.20.21.120</t>
-  </si>
-  <si>
-    <t>1.4.</t>
-  </si>
-  <si>
-    <t>Средние потребительские цены на бензин автомобильный и дизельное топливо по РФ, на основании сведений с официального сайта Росстата:  Срочная информация 2 октября 2024 года No 156 О ПОТРЕБИТЕЛЬСКИХ ЦЕНАХ НА НЕФТЕПРОДУКТЫ 1 С 24 ПО 30 СЕНТЯБРЯ 2024 ГОДА</t>
-  </si>
-  <si>
-    <t>Ф9Д, п. 2.3.5. г. Архангельск, Арх. обл., водитель (жилье принято только на время проживания  в г. Архангельск, проезд на служебном транспорте)</t>
-  </si>
-  <si>
-    <t>Определено локацией и особеностями логистики в РП "Койда"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коммерческое предложение ООО "МНГС" - ведущего оператора (экспедитора) каботажного плавания в Архангельской области и НАО, включающее в себя погрузочно-разгрузочные операции в порту г. Архангельск и ответственное хранение контейнеров с ОЧ РКН, демонтированными узлами в течение 10 суток в порту г. Архангельск. Стоимость 10800 руб./фрахтовая единица (1м³). Перевозка 4-х стандартных контейнеров 20ft ISO.  </t>
-  </si>
-  <si>
-    <t>Начальник ФАУ "ЦРО КД" МО РФ</t>
-  </si>
-  <si>
-    <t>__________________________                                   С.В. Смагин</t>
-  </si>
-  <si>
-    <t>Федеральное автономное учреждение “Центр развития и обеспечения космической деятельности” Министерства обороны Российской Федерации</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Плановые затраты, согласованные государств&gt;ен-ным заказчиком (заказчиком) при формировании цены государственного контракта (контракта) по ориентиро-вочной (уточняемой) цене / возмещающей издержки цене</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комплекс услуг по вывозу фрагментов ОЧ РКН, сложенных в стандартные морские 20 Ft контейнеры ISO (4 контейнера) по маршруту: порто-пункт Койда - порт Архангельск с использованием баржебуксирного состава в навигационный период после окончания работ по эвакуации фрагментов ОЧ РКН. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">______________________   Руководитель ФАУ "ЦРО КД" МО РФ С.В. Смагин </t>
-  </si>
-  <si>
-    <t>отчетный период / период, предшествующий планируемому (___г.)</t>
-  </si>
-  <si>
-    <t>ф</t>
-  </si>
-  <si>
-    <t>Принято на основании Протокола заседания экспертной комиссии № 1/11 от 11.11.2024г., созданной Приказом Генерального директора ООО "Бенефит Бизнес" № 11-001/орг от 30.10.2024г. Трудоемкость выполнения собственных работ ООО "Бенефит Бизнес" составит ВСЕГО</t>
-  </si>
-  <si>
-    <t>______________  Барышева И.М.</t>
-  </si>
-  <si>
-    <t>отчетный период 
- на __.__.20__ г.</t>
-  </si>
-  <si>
-    <t>ТЗ № ЦРОКД/2-6/25 "Оказание комплекса услуг в РП при обеспечении запуска КА ООО "Бюро 1440"  с использованием РН «Союз-2.1б» с космодрома Плесецк (Запуски 1-24)</t>
-  </si>
-  <si>
-    <t>"07" апреля  2025 г.</t>
-  </si>
-  <si>
-    <t>"07" апреля 2025 г.</t>
-  </si>
-  <si>
-    <t>Протокол цены единицы продукции и выбора вида цены</t>
-  </si>
-  <si>
-    <t>определение цены контракта, заключаемого с единственным  исполнителем, на поставку продукции по цене, не подлежащей регистрации</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> фиксированная</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бензин для опережающего завоза в с. Койда, необходимый для работы бензоинструмента, электрогенераторов </t>
-  </si>
-  <si>
-    <t>отчетный период / период, предшествующий планируемому                                                                                             (год 2024)</t>
-  </si>
-  <si>
-    <t>1.1.1.</t>
-  </si>
-  <si>
-    <t>k=1,4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">с. Койда, Арх. обл. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Затраты на оплату системы сбора платежей "Платон" при движении грузового транспорта в пути следования перевозке оборудования и материалов по маршруту - Электрогорск (МО) - Архангельск (Арх.обл). </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Затраты </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>отчетного периода: фактические затраты на 2024 год (руб.)</t>
-    </r>
-  </si>
-  <si>
-    <t>Затраты на оплату услуг по предоставлению площадки для складирования и имущественного комплекса для хранения оборудования и материально-технических ценностей на територии в непосредственной близости от с. Койда Мезенского р-на Архангельской области (площадь территории - не менн 1 ГА, назначение - земли космонавтики)</t>
-  </si>
-  <si>
-    <t>Коммерческое предложене ООО "Строй Сервис" стоимость услуг по договору составляет 250 000 руб./мес, на срок выполнения работы: 2  месяца</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Состав комплектов и необходимость их примненения обусловлена составом задач ТЗ и локацией РП. Коммерческое предложение ООО "Бенефит-Спецтранс"  (Аффилированное лицо. ИНН 5035042593). Исполнитель определяется после заключения Договора с использованием конкурентной процедуры. Срок оказания Услуг - в соответствии с требованиями ТЗ -  до 2,5 месяцев с даты запуска КА. Определена НМЦК (договора) - оплата в соответствии с единичными расценками в соответствии с фактическим использованием оборудования. </t>
-  </si>
-  <si>
-    <t>Услуги по комплектации и обеспечению проведения работ в районах падения комплектами оборудования для поддержания выживаемости и мобильности  персонала с учетом сезонности, для  первичной переработки фрагментов ОЧ РКН, мотовездеходов, снегоходов, автотранспорта и специальной техники (по фактическим затратам) (дополнительно к Этапу № 3 ТЗ)</t>
-  </si>
-  <si>
-    <t>Форма № 23д</t>
-  </si>
-  <si>
-    <t>Расчет (обоснование) трудоемкости</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Расчет (обоснование) трудоемкости ПРОДОЛЖЕНИЕ </t>
-  </si>
-  <si>
-    <t>ПРОДОЛЖЕНИЕ 1</t>
-  </si>
-  <si>
-    <t>Отчетный период период, предшествующий планируемому (год 2024)</t>
-  </si>
-  <si>
-    <t>Планируемый период (2025-2026 г.)</t>
-  </si>
-  <si>
-    <t>Наименование товаров, работ, услуг. ПРОДОЛЖЕНИЕ</t>
-  </si>
-  <si>
-    <t>Планируемый период (2027-2030 г.)</t>
-  </si>
-  <si>
-    <t>План (2024г.)</t>
-  </si>
-  <si>
-    <t>Факт на 2024 г.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">План 2025 год. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">План 2026 год. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">План 2027 год. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">План 2028 год. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">План 2029 год. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">План 2030 год. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">стоимость </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>человеко/часа</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(руб.)</t>
-    </r>
-  </si>
-  <si>
-    <t>технологическая трудоемкость всего (гр.3*гр&amp;5)</t>
-  </si>
-  <si>
-    <t>основная заработная плата основных работников                                           (гр.4*гр.6)</t>
-  </si>
-  <si>
-    <r>
-      <t>стоимость человеко/часа</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(руб.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">годовой объем </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>производства</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-(штуки)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">технологическая </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>трудоемкость всего, н./час.
-(гр.13*гр.15)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">основная заработная плата основных </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>работников</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">                                            (гр.14*гр.16)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>стоимость человеко/часа</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(руб.) k=110,5% г/г</t>
-    </r>
-  </si>
-  <si>
-    <t>технологическая трудоемкость всего, н./час.
-(гр.18*гр.20)</t>
-  </si>
-  <si>
-    <t>основная заработная плата основных работников                                            (гр.19*гр.21)</t>
-  </si>
-  <si>
-    <r>
-      <t>стоимость человеко/часа</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(руб.)  k=108,3% г/г</t>
-    </r>
-  </si>
-  <si>
-    <t>технологическая трудоемкость всего, н./час.
-(гр.23*гр.25)</t>
-  </si>
-  <si>
-    <t>основная заработная плата основных работников                                            (гр.24*гр.26)</t>
-  </si>
-  <si>
-    <t>технологическая трудоемкость всего, н./час.
-(гр.28*гр.30)</t>
-  </si>
-  <si>
-    <t>основная заработная плата основных работников                                            (гр.29*гр.31)</t>
-  </si>
-  <si>
-    <t>технологическая трудоемкость всего, н./час.
-(гр.33*гр.35)</t>
-  </si>
-  <si>
-    <t>основная заработная плата основных работников                                            (гр.34*гр.36)</t>
-  </si>
-  <si>
-    <r>
-      <t>стоимость человеко/часа</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(руб.) k=108,3% г/г</t>
-    </r>
-  </si>
-  <si>
-    <t>технологическая трудоемкость всего, н./час.
-(гр.38*гр.40)</t>
-  </si>
-  <si>
-    <t>основная заработная плата основных работников                                            (гр.39*гр.41)</t>
-  </si>
-  <si>
-    <t>Ввыполнение проектно-изыскательских работ по капитальному ремонту здания гостиницы ЦРО КД МО РФ</t>
-  </si>
-  <si>
-    <t>Оказание услуг по эвакуации ОЧ РКН из РП при обеспечении запуска БКА с КА "Глонасс-К2", №13Л-№14Л с космодрома Плесецк запуск №1</t>
-  </si>
-  <si>
-    <t>Эвакуация отделяющихся частей РН "Союз-2-1а" из районов падения № 981, № 983, № 985 при запуске КА "Кондор-ФКА" № 1 и ,"Кондор-ФКА" № 2 с космодрома "Восточный"</t>
-  </si>
-  <si>
-    <t>Эвакуация отделяющихся частей РН "Союз-2-1б" из районов падения № 981, № 983, № 985 при запуске КА "Ионосфера-М" № 1 ,"Ионосфера-М" № 2 с космодрома "Восточный"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оказание услуг в ОЧ РП РКН при обеспечении запуска БКА с КА "Глонасс-К2",-№14Л с космодрома Плесецк </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оказание услуг в ОЧ РП РКН при обеспечении запуска БКА с КА "Глонасс-К",-№18Л с космодрома Плесецк </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оказание услуг в ОЧ РП РКН при обеспечении запуска БКА с КА "Глонасс-К",-№19Л с космодрома Плесецк </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оказание услуг в ОЧ РП РКН при обеспечении запуска БКА с КА "Глонасс-К",-№20Л с космодрома Плесецк </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оказание услуг в ОЧ РП РКН при обеспечении запуска БКА с КА "Глонасс-К",-№21Л с космодрома Плесецк </t>
-  </si>
-  <si>
-    <t>Услуги по организации и выполнению комбинированной перевозки груза по маршруту АО «ВПК «НПО машиностроения» - КЦ «Восточный" Амурская область» , д/с № 5</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению технической готовности объектов космодрома Плесецк для подготовки и запуска космических аппаратов «Рассвет-2» совместно с изделием 14Ф168 (Н3) ЦРО КД МО РФ</t>
-  </si>
-  <si>
-    <t>Оказание услуг по организации , закупки, хранению и доставки к месту заправки огрегатов ПТО и ПЗО ГСМ в обеспечении исполнегия гоз контракта (ГРЦ Макеева 3ГРЦ)</t>
-  </si>
-  <si>
-    <t>Оказание услуг по организации , закупки, хранению и доставки к месту заправки огрегатов ПТО и ПЗО ГСМ в обеспечении исполнегия гоз контракта (ГРЦ Макеева 4ГРЦ)</t>
-  </si>
-  <si>
-    <t>Перевозка командируемых работников МтС и оборудования заказчика на площадки 1ГИК МО РФ (ГРЦ Макеева 5ГРЦ)</t>
-  </si>
-  <si>
-    <t>15.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 1</t>
-  </si>
-  <si>
-    <t>15.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 1</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 1</t>
-  </si>
-  <si>
-    <t>15.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 1</t>
-  </si>
-  <si>
-    <t>16.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 2</t>
-  </si>
-  <si>
-    <t>16.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 2</t>
-  </si>
-  <si>
-    <t>16.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 2</t>
-  </si>
-  <si>
-    <t>16.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 2</t>
-  </si>
-  <si>
-    <t>17.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 3</t>
-  </si>
-  <si>
-    <t>17.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 3</t>
-  </si>
-  <si>
-    <t>17.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 3</t>
-  </si>
-  <si>
-    <t>17.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 3</t>
-  </si>
-  <si>
-    <t>18.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 4</t>
-  </si>
-  <si>
-    <t>18.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 4</t>
-  </si>
-  <si>
-    <t>18.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 4</t>
-  </si>
-  <si>
-    <t>18.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 4</t>
-  </si>
-  <si>
-    <t>19.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 5</t>
-  </si>
-  <si>
-    <t>19.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 5</t>
-  </si>
-  <si>
-    <t>19.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 5</t>
-  </si>
-  <si>
-    <t>19.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 5</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 6</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 6</t>
-  </si>
-  <si>
-    <t>20.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 6</t>
-  </si>
-  <si>
-    <t>20.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 6</t>
-  </si>
-  <si>
-    <t>21.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 7</t>
-  </si>
-  <si>
-    <t>21.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 7</t>
-  </si>
-  <si>
-    <t>21.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 7</t>
-  </si>
-  <si>
-    <t>21.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 7</t>
-  </si>
-  <si>
-    <t>22.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 8</t>
-  </si>
-  <si>
-    <t>22.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 8</t>
-  </si>
-  <si>
-    <t>22.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 8</t>
-  </si>
-  <si>
-    <t>22.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 8</t>
-  </si>
-  <si>
-    <t>23.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 9 (с 24.10.2026г.) </t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 9</t>
-  </si>
-  <si>
-    <t>23.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 9</t>
-  </si>
-  <si>
-    <t>23.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 9</t>
-  </si>
-  <si>
-    <t>23.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 9</t>
-  </si>
-  <si>
-    <t>24.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 10</t>
-  </si>
-  <si>
-    <t>24.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 10</t>
-  </si>
-  <si>
-    <t>24.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 10</t>
-  </si>
-  <si>
-    <t>24.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 10</t>
-  </si>
-  <si>
-    <t>25.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 11</t>
-  </si>
-  <si>
-    <t>25.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 11</t>
-  </si>
-  <si>
-    <t>25.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 11</t>
-  </si>
-  <si>
-    <t>25.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 11</t>
-  </si>
-  <si>
-    <t>26.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 12</t>
-  </si>
-  <si>
-    <t>26.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 12</t>
-  </si>
-  <si>
-    <t>26.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 12</t>
-  </si>
-  <si>
-    <t>26.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 12</t>
-  </si>
-  <si>
-    <t>27.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 13</t>
-  </si>
-  <si>
-    <t>27.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 13</t>
-  </si>
-  <si>
-    <t>27.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 13</t>
-  </si>
-  <si>
-    <t>27.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 13</t>
-  </si>
-  <si>
-    <t>28.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 14</t>
-  </si>
-  <si>
-    <t>28.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 14</t>
-  </si>
-  <si>
-    <t>28.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 14</t>
-  </si>
-  <si>
-    <t>28.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 14</t>
-  </si>
-  <si>
-    <t>29.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 15</t>
-  </si>
-  <si>
-    <t>29.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 15</t>
-  </si>
-  <si>
-    <t>29.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 15</t>
-  </si>
-  <si>
-    <t>29.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 15</t>
-  </si>
-  <si>
-    <t>30.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 16</t>
-  </si>
-  <si>
-    <t>30.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 16</t>
-  </si>
-  <si>
-    <t>30.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 16</t>
-  </si>
-  <si>
-    <t>30.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 16</t>
-  </si>
-  <si>
-    <t>31.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 17 (с 25.04.2027г.)</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 17</t>
-  </si>
-  <si>
-    <t>31.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 17</t>
-  </si>
-  <si>
-    <t>31.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 17</t>
-  </si>
-  <si>
-    <t>31.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 17</t>
-  </si>
-  <si>
-    <t>32.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 18</t>
-  </si>
-  <si>
-    <t>32.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 18</t>
-  </si>
-  <si>
-    <t>32.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 18</t>
-  </si>
-  <si>
-    <t>32.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 18</t>
-  </si>
-  <si>
-    <t>33.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 19</t>
-  </si>
-  <si>
-    <t>33.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 19</t>
-  </si>
-  <si>
-    <t>33.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 19</t>
-  </si>
-  <si>
-    <t>33.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 19</t>
-  </si>
-  <si>
-    <t>34.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 20</t>
-  </si>
-  <si>
-    <t>34.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 20</t>
-  </si>
-  <si>
-    <t>34.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 20</t>
-  </si>
-  <si>
-    <t>34.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 20</t>
-  </si>
-  <si>
-    <t>35.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 21</t>
-  </si>
-  <si>
-    <t>35.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 21</t>
-  </si>
-  <si>
-    <t>35.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 21</t>
-  </si>
-  <si>
-    <t>35.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 21</t>
-  </si>
-  <si>
-    <t>36.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 22</t>
-  </si>
-  <si>
-    <t>36.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 22</t>
-  </si>
-  <si>
-    <t>36.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 22</t>
-  </si>
-  <si>
-    <t>36.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 22</t>
-  </si>
-  <si>
-    <t>37.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 23</t>
-  </si>
-  <si>
-    <t>37.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 23</t>
-  </si>
-  <si>
-    <t>37.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 23</t>
-  </si>
-  <si>
-    <t>37.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 23</t>
-  </si>
-  <si>
-    <t>38.1</t>
-  </si>
-  <si>
-    <t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 24</t>
-  </si>
-  <si>
-    <t>38.2</t>
-  </si>
-  <si>
-    <t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 24</t>
-  </si>
-  <si>
-    <t>38.3</t>
-  </si>
-  <si>
-    <t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 24</t>
-  </si>
-  <si>
-    <t>38.4</t>
-  </si>
-  <si>
-    <t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 24</t>
-  </si>
-  <si>
-    <t>Генеральный директор ООО "Бенефит Бизнес"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    __________________                   Ильичев П.В.</t>
-  </si>
-  <si>
-    <t>_______________________ 2025г.</t>
-  </si>
-  <si>
-    <t>_________________________ 2025г.</t>
-  </si>
-  <si>
-    <t>Форма № 22 (22д)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коммерческие (внепроизводственные) затраты / база распределения затрат </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Транспортно-заготовительные затраты / база распределения затрат </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Главный бухгалтер ООО "Бенефит Бизнес"
-</t>
-  </si>
-  <si>
-    <r>
-      <t>плановой основной заработной платы</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>на выполнение работ (услуг):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ИТОГО плановая трудоемкость</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> по этапу</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>суточные</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(руб.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> средний заработок за дни нахождения в пути</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>отчисления на обязательное социальное страхование</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(руб.)</t>
-    </r>
-  </si>
-  <si>
-    <t>Дополнительная заработная плата основных работников,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     в % к основной заработной плате основных работников, %</t>
-  </si>
-  <si>
-    <t>Период, предшествующий отчетному ( 2023 г.)</t>
-  </si>
-  <si>
-    <t>Отчетный период / период, предшествующий планируемому (2024 г.)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">плановых затрат </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>на приобретение полуфабрикатов</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> на</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Код ОКП / ОКПД2</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цена за единицу </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>измерения</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (руб.)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">организация-поставщик </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">(подрядчик, исполнитель) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цена за единицу </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>измерения</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(руб.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цена за единицу </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">измерения </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(руб.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Расчет-обоснование
-норматива транспортно-заготовительных </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>затрат</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> на</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">всего </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>транспортно-заготовительных затрат</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Наименование статей</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Применяемый индекс цен</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">предложено организацией-поставщиком </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(подрядчиком, исполнителем)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">База распределения общепроизводственных </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>затрат</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-(_________________________________________)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Наименование статей затрат</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Основание для включения
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(техническая документация)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    трудоемкость (____________</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ставка погашения на единицу изделия</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> затрат на подготовку и освоение производства</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">на </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Наименование статьи
-затрат</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>Подготовка и освоение видов продукции, объемы производства которых увеличились в два и более раз, всего:</t>
-  </si>
-  <si>
-    <t>Планируемый период (годы 2025-2030)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>общехозяйственных затрат / административно-управленческих расходов</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>на 2024 -2025год
-  по ООО "Бенефит Бизнес"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       (наименование подразделения / предприятия)  </t>
-    </r>
-  </si>
-  <si>
-    <t>Предыдущий период (год 2024 г.)</t>
-  </si>
-  <si>
-    <t>Предложено организацией - исполнителем</t>
-  </si>
-  <si>
-    <t>в т.ч. по госконтрактам (контрактам) ГОЗ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">в т.ч. по госконтрактам (контрактам) ГОЗ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ндс </t>
-  </si>
-  <si>
-    <t xml:space="preserve">доп. зарплата </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* утвержденный Заключением 4294 ВП МО РФ исх. № 4294/94 от 07.02.2024г. размер общехозяйственных затрат (накладных расходов в % от ОЗП) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">- 424,36%.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Индексирование размера общехозяйственных затрат (накладных расходов в % от ОЗП) по годам выполнения этапов работ не применяется, поскольку применено индексирование ОЗП в соответствии с дефлятором, утвержденным в Письме Минэкономразвития России от 02.10.2024 № 35132-ПК/Д03и: "О применении показателей прогноза социально-экономического развития Российской Федерации в целях ценообразования на продукцию, поставляемую по государственному оборонному заказу": при уровне 496,96 руб. в 2025 году, 
+ в командировках на территорию иностранных государств, необходимость которых определена требованиями государственного заказчика (заказчика)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Трудоемкость и заработная плата, учтенные при расчете цены</x:t>
+  </x:si>
+  <x:si>
+    <x:t>начисления стимулирующего характера</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Первый заместитель Генерального директора ООО "Бенефит Бизнес"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>годовой объем производства
+(штуки)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>основная заработная плата основных работников                                           (гр.9*гр.11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Плановая (прогнозная) калькуляция затрат</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">оплата работ и услуг сторонних организаций производственного характера </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Затраты по работам (услугам), выполняемым (оказываемым) сторонними организациями </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Прочие прямые затраты</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  (подпись)                       </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)                                                                            (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)                                      </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)                            </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)                                                                                 (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>______________                        !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                    (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)                                                                        (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_________________                 !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)                                                                             </x:t>
+  </x:si>
+  <x:si>
+    <x:t>_____________________                                          Крутиков П.Ю.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>______________________       !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>______________                       !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">      (подпись)                        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>____________                                          !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_______________                   !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)                                                    (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)                                                        (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)                                                                                         </x:t>
+  </x:si>
+  <x:si>
+    <x:t>_______________                  !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)                                     (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>________________                                                Крутиков П.Ю.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>___________________               !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> ______________                !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>______________                                                   Крутиков П.Ю.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>___________________                   !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>___________________                      Крутиков П.Ю.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>______________                                          Крутиков П.Ю.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_______________                           Крутиков П.Ю.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)                                                      (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)                                                                          (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>______________                                     Крутиков П.Ю.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>______________                                 Крутиков П.Ю.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_______________                !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>______________                                              Крутиков П.Ю.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)                                                                             (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>технологическая трудоемкость единицы продукции (н./час.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> (наименование подразделения / предприятия) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>специальных затрат на</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Квалификационная группа основных работников, привлекаемых
+к выполнению этапа</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Заказчик:</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ст.426 НК РФ </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Генеральный  директор ООО "Бенефит Бизнес"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_________________________                  П.В. Ильичев</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ФЗ № 419 от 19.12.2016 г.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> кроме того дополнительная заработная плата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Индекс цен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Всего                  (тыс. руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Всего                     (тыс. руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>численность</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дополнительная заработная плата  АУП</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Амортизация основных средств</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Прочие, в т.ч.:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>База распределения общепроизводственных расходов*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>средняя зарплата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отношение общепроизводственных расходов к базе их распределения, %</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты на приобретение покупных полуфабрикатов не предусмотрены</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Транспортно-заготовительные затраты  не предусмотрены</x:t>
+  </x:si>
+  <x:si>
+    <x:t>технологическая трудоемкость всего (гр.8*гр.10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты  не предусмотрены</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Специальное оборудование, изготавливаемое собственными силами</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 3 (3д)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(штука, комплект, этап, единица работы (услуги), иное)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>№№ строк</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   приобретение сырья, материалов и вспомогательных материалов</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   оплата работ и услуг сторонних организаций производственного характера </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   дополнительная заработная плата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Цена продукции (без НДС)
+(сумма строк 1700, 1800)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>М.П. (при наличии)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отчетная калькуляция затрат</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Трудоемкость (н/час)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  (должность)       (подпись)                    (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Трудоемкость (н./час.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   топливо на технологические цели</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   энергия на технологические цели</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты по работам (услугам), выполняемым (оказываемым) сторонними организациями</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">*  Затраты на приобретение покупных полуфабрикатов отсутствуют и не предусмотрены. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты на приобретение покупных полуфабрикатов отсутствуют</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*  Транспортно-заготовительные затраты отсутствуют и не предусмотрены</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*  Затраты  отсутствуют и не предусмотрены</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Специальные затраты  отсутствуют и не предусмотрены</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Специальные затраты отсутствуют и  не предусмотрены</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*  Затраты на специальное оборудование для научных (экспериментальных) работ  отсутствуют и не предусмотрены</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты на специальное оборудование для научных (экспериментальных) работ отсутствуют и не предусмотрены</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты на специальную технологическую оснастку отсутствуют и не предусмотрены</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  Затраты  на подготовку и освоение производства отсутствуют и не предусмотрены</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Генеральный директор </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Военный представитель:</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">_____________   __________   </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Количество привлека-емых специалис-тов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>План</x:t>
+  </x:si>
+  <x:si>
+    <x:t>л.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19.20.21.300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>приобретение сырья, материалов и вспомогательных материалов (топлива)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41.20.40.900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вспомогательные материалы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>II.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ИТОГО по разделу I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>комплекс услуг</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Код ОКП / ОКПД2 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>факт на 2022г.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>______________________                                              Крутиков П.Ю.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  (подпись)                                                       (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>______________                         Крутиков П.Ю.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_________________                                                                 Крутиков П.Ю.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>______________________      !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                                                                    (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>________________                                                         Крутиков П.Ю.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">      (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                              (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>№                                                                                                                   п/п</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                                    (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>№                                                                              п/п</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                     (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)                                                                 (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_______________                                          !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)                                                                                         (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)                                                       (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Выплаты, пропорциональные ОЗП непосредственных исполнителей                                                               при выполнении работ по теме:</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> в составе: оплата ежегодных оплачиваемых отпусков </x:t>
+  </x:si>
+  <x:si>
+    <x:t>*) Дополнительная заработная плата начисляется Исполнителем на основании принятого с 01.06.21 г. протокола согласования базовых эконмических показателей, утвержденного                                                                                                           Закл. Исх. № 4294/826 от 28.05.2021 г.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>________________                                  Крутиков П.Ю.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>________________                    !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>____________________                                    Крутиков П.Ю.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">        (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*  Коммерческие (внепроизводственные) затраты отсутствуют и не предусмотрены</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Коммерческие (внепроизводственные) затраты  отсутствуют и не предусмотрены</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">(подпись)                </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                                                (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(подпись)                                                                                                      (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Единица                                                                                         измерения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>______________                                         Крутиков П.Ю.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>__________________________     Ильичев П.В.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>__________________                 !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">              (подпись)                                                 (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ИТОГО суммарно                                             по затратам</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                         (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Код ЕКПС                                                                   (при наличии)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">      (подпись)                                                                                                  (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 11д</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сведения об объемах поставки продукции, в том числе по государственному оборонному заказу, включая экспортные поставки</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 12</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">    (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">                                 (подпись)                                               (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>средний показатель по фактически выплаченным страховым взносам                                                                                              в 2020 году в связи с применением                                ФЗ № 209 от 24.07.2007 с дополнением  подпункт 17 пункта 1, пункта 2.1, статьи                                               427 НФ РФ и ФЗ № 1092 от 01.04.2020 г.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наименование                                               сторонних                                              организаций</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Всего работ услуг</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_____________                  !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сырье и основные материалы:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ООО "Передавые Платежные Решения" (ООО "ППР")</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52.23.20.120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* затраты отсутствуют и не предусмотрены</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Факт. Затраты на 2023 г.  (руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>в т.ч. по государственным контрактам (контрактам) гособорнзаказа (тыс. руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>привнесенные затраты</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">собственные затраты </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Этап</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">№№ строки </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Собственные</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Привнесенные</x:t>
+  </x:si>
+  <x:si>
+    <x:t>приобретение сырья, материалов и вспомогательных материалов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>приобретение полуфабрикатов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>возвратные отходы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>приобретение комплектующих изделий</x:t>
+  </x:si>
+  <x:si>
+    <x:t>оплата работ и услуг сторонних организаций производтвенного характера</x:t>
+  </x:si>
+  <x:si>
+    <x:t>транспортно-заготовительные затраты</x:t>
+  </x:si>
+  <x:si>
+    <x:t>топливо на технологические цели</x:t>
+  </x:si>
+  <x:si>
+    <x:t>энергия на технологические цели</x:t>
+  </x:si>
+  <x:si>
+    <x:t>тара и упаковка</x:t>
+  </x:si>
+  <x:si>
+    <x:t>затраты на изделия собственного производства</x:t>
+  </x:si>
+  <x:si>
+    <x:t>основная заработная плата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты на подготовку и освоение проиводства - всего</x:t>
+  </x:si>
+  <x:si>
+    <x:t>пусковые затраты</x:t>
+  </x:si>
+  <x:si>
+    <x:t>затраты на подготовку и освоение новых видов продукции</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты на специальное оборудование для научных (эксперементальных) работ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Коммерческие (производственные) затраты</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Административно-управенчекие расходы</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*) Ткблица 2 не заполняется, в связи с отсутствием части прибыли более 25 % от собственных затрат</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Руководитель экономической службы организации-поставщика</x:t>
+  </x:si>
+  <x:si>
+    <x:t>НДС по ставке 0%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ИТОГО с НДС 0% </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отчетный период - фактические затраты на __.__.202_г.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>сопоставление рыночных индикаторов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Диски для бензорезов для первичной переработки фрагментов ОЧ РКН</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Продолжительность пребывания в командировке командиру-емых работников
+(человеко-дни)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>плановых прочих прямых затрат</x:t>
+  </x:si>
+  <x:si>
+    <x:t>факт на __.__.202_г.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затратный</x:t>
+  </x:si>
+  <x:si>
+    <x:t>факт. затраты  на                                               __.__.202_г.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>плановых затрат по работам (услугам), выполняемым (оказываемым) сторонними организациями на</x:t>
+  </x:si>
+  <x:si>
+    <x:t>плановой основной заработной платы и трудовых затрат на</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Расчет плановых затрат на командировки</x:t>
+  </x:si>
+  <x:si>
+    <x:t>плановых затрат на приобретение комплектующих изделий на</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Количество и пункты назначения командировок, продолжительность пребывания в командировках, количество командируемых сотрудников, указанные в данной форме, необходимы для выполнения требований ТЗ в полном объёме и определены с  учётом ранее выполненных (оказанных) аналогичных работ (услуг)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   «Номенклатура, нормы расхода (количество) сырья и материалов, указанные в данной форме, необходимы для выполнения требований ТЗ  в полном объёме и определены  с учётом ранее выполненных (оказанных) аналогичных работ (услуг)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">В соответствии со статьей 31.1 Федерального закона от 08.11.2007 N 257-ФЗ "Об автомобильных дорогах и о дорожной деятельности в Российской Федерации и о внесении изменений в отдельные законодательные акты Российской Федерации", в соответствии с п. 1 Постановления Правительства РФ от 14.06.2013 № 504 (в ред. от 18.05.2015 N 474), п. 2 Постановления Правительства РФ от 03.11.2015 № 1191 (в ред. от 27.02.2016 N 139, от 31.01.2017 N 120 (ред. 24.03.2017), от 28.06.2018 N 744, от 29.06.2019 № 843). Тариф на период 01.02.2023 – 31.01.2024 установлен в размере 2,84 руб./км. Размер платы в более поздние периоды подлежит определению с учетом появления информации Росстата о фактическом изменении индекса потребительских цен за указанные в Постановлении Правительства РФ от 29.06.2019 № 843.  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>среднемесячная основная заработная плата основных работников</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">согласовано 4294 ВП МО РФ исх. № 4294/94 от 07.02.2024г. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Общехозяйственные затраты (накладные расходы: % от ОЗП  ) / база распределения затрат для производства серийных работ (услуг)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Общехозяйственные затраты (накладные расходы: % от ОЗП  ) / база распределения затрат для выполнения ОКР (НИОКР)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отчетный период / период, предшествующий планируемому (год 2023)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Планируемый период (год 2025)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отчетный период / период, предшествующий планируемому (2023 г)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отчетный период / период, предшествующий планируемому
+(год 2023г.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     общепроизводственных затрат на 2024  год  по ООО "Бенефит Бизнес"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отчетный период / период, предшествующий планируемому (год 2023 )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>факт на 2023 г.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Смета и расчет
+коммерческих (внепроизводственных) затрат на 2024 год</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отчетный период / период, предшествующий планируемому
+(год 2023)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>факт на 2023г.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты отчетного периода / периода, предшествующего планируемому (год 2023 )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Затраты отчетного периода / периода, предшествующего планируемому (год 2023) (руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>затраты
+(на 2023 гг.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Погашено по состоянию на 2023г.
+ (руб.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>______________________  Крутиков П.Ю.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>______________________ !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">              (подпись)                           (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"_____"______________ 2025г.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>трудоемкость выполнения работ
+(н/ч)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Доплаты и надбавки, предусмотренные законодательством Российской Федерации, относимые к основной заработной плате - начисления, обусловленные
+ районным регулированием (районный коэффициент). Принято на основании статьи 316 Трудового кодекса РФ в соответствии с Инструкцией о порядке предоставления социальных гарантий и компенсаций лицам, работающим в районах крайнего севера и в местностях, приравненных к районам крайнего севера. Закон РФ от 19.02.1993г. № 4520-1 "О государственных гарантиях и компенсациях для лиц, работающих и проживающих в районах крайнего севера и приравненных к ним местностях.             </x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>затраты предыдущих периодов
+(на __.__.____ г.)</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="12"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>4</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>ООО "МНГС"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дизельное топливо в грузовой автотранспорт предприятия для перевозки контейнеров с фрагментами ОЧ РКН по маршруту: г. Архангельск, Архангельской обл. - г. Электрогорск, МО, за 2 оборотных рейса</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19.20.21.120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Средние потребительские цены на бензин автомобильный и дизельное топливо по РФ, на основании сведений с официального сайта Росстата:  Срочная информация 2 октября 2024 года No 156 О ПОТРЕБИТЕЛЬСКИХ ЦЕНАХ НА НЕФТЕПРОДУКТЫ 1 С 24 ПО 30 СЕНТЯБРЯ 2024 ГОДА</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ф9Д, п. 2.3.5. г. Архангельск, Арх. обл., водитель (жилье принято только на время проживания  в г. Архангельск, проезд на служебном транспорте)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Определено локацией и особеностями логистики в РП "Койда"</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Коммерческое предложение ООО "МНГС" - ведущего оператора (экспедитора) каботажного плавания в Архангельской области и НАО, включающее в себя погрузочно-разгрузочные операции в порту г. Архангельск и ответственное хранение контейнеров с ОЧ РКН, демонтированными узлами в течение 10 суток в порту г. Архангельск. Стоимость 10800 руб./фрахтовая единица (1м³). Перевозка 4-х стандартных контейнеров 20ft ISO.  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Начальник ФАУ "ЦРО КД" МО РФ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>__________________________                                   С.В. Смагин</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Федеральное автономное учреждение “Центр развития и обеспечения космической деятельности” Министерства обороны Российской Федерации</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Плановые затраты, согласованные государств&gt;ен-ным заказчиком (заказчиком) при формировании цены государственного контракта (контракта) по ориентиро-вочной (уточняемой) цене / возмещающей издержки цене</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Комплекс услуг по вывозу фрагментов ОЧ РКН, сложенных в стандартные морские 20 Ft контейнеры ISO (4 контейнера) по маршруту: порто-пункт Койда - порт Архангельск с использованием баржебуксирного состава в навигационный период после окончания работ по эвакуации фрагментов ОЧ РКН. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">______________________   Руководитель ФАУ "ЦРО КД" МО РФ С.В. Смагин </x:t>
+  </x:si>
+  <x:si>
+    <x:t>отчетный период / период, предшествующий планируемому (___г.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ф</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Принято на основании Протокола заседания экспертной комиссии № 1/11 от 11.11.2024г., созданной Приказом Генерального директора ООО "Бенефит Бизнес" № 11-001/орг от 30.10.2024г. Трудоемкость выполнения собственных работ ООО "Бенефит Бизнес" составит ВСЕГО</x:t>
+  </x:si>
+  <x:si>
+    <x:t>______________  !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>отчетный период 
+ на __.__.20__ г.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ТЗ № ЦРОКД/2-6/25 "Оказание комплекса услуг в РП при обеспечении запуска КА ООО "Бюро 1440"  с использованием РН «Союз-2.1б» с космодрома Плесецк (Запуски 1-24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"07" апреля  2025 г.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"07" апреля 2025 г.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Протокол цены единицы продукции и выбора вида цены</x:t>
+  </x:si>
+  <x:si>
+    <x:t>определение цены контракта, заключаемого с единственным  исполнителем, на поставку продукции по цене, не подлежащей регистрации</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> фиксированная</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Бензин для опережающего завоза в с. Койда, необходимый для работы бензоинструмента, электрогенераторов </x:t>
+  </x:si>
+  <x:si>
+    <x:t>отчетный период / период, предшествующий планируемому                                                                                             (год 2024)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.1.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>k=1,4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">с. Койда, Арх. обл. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Затраты на оплату системы сбора платежей "Платон" при движении грузового транспорта в пути следования перевозке оборудования и материалов по маршруту - Электрогорск (МО) - Архангельск (Арх.обл). </x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">Затраты </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>отчетного периода: фактические затраты на 2024 год (руб.)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Затраты на оплату услуг по предоставлению площадки для складирования и имущественного комплекса для хранения оборудования и материально-технических ценностей на територии в непосредственной близости от с. Койда Мезенского р-на Архангельской области (площадь территории - не менн 1 ГА, назначение - земли космонавтики)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Коммерческое предложене ООО "Строй Сервис" стоимость услуг по договору составляет 250 000 руб./мес, на срок выполнения работы: 2  месяца</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Состав комплектов и необходимость их примненения обусловлена составом задач ТЗ и локацией РП. Коммерческое предложение ООО "Бенефит-Спецтранс"  (Аффилированное лицо. ИНН 5035042593). Исполнитель определяется после заключения Договора с использованием конкурентной процедуры. Срок оказания Услуг - в соответствии с требованиями ТЗ -  до 2,5 месяцев с даты запуска КА. Определена НМЦК (договора) - оплата в соответствии с единичными расценками в соответствии с фактическим использованием оборудования. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Услуги по комплектации и обеспечению проведения работ в районах падения комплектами оборудования для поддержания выживаемости и мобильности  персонала с учетом сезонности, для  первичной переработки фрагментов ОЧ РКН, мотовездеходов, снегоходов, автотранспорта и специальной техники (по фактическим затратам) (дополнительно к Этапу № 3 ТЗ)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 23д</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Расчет (обоснование) трудоемкости</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Расчет (обоснование) трудоемкости ПРОДОЛЖЕНИЕ </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ПРОДОЛЖЕНИЕ 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отчетный период период, предшествующий планируемому (год 2024)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Планируемый период (2025-2026 г.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наименование товаров, работ, услуг. ПРОДОЛЖЕНИЕ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Планируемый период (2027-2030 г.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>План (2024г.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Факт на 2024 г.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">План 2025 год. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">План 2026 год. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">План 2027 год. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">План 2028 год. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">План 2029 год. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">План 2030 год. </x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">стоимость </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="10"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>человеко/часа</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="10"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="10"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>(руб.)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>технологическая трудоемкость всего (гр.3*гр&amp;5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>основная заработная плата основных работников                                           (гр.4*гр.6)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>стоимость человеко/часа</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="10"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="10"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>(руб.)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">годовой объем </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="10"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>производства</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="10"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+(штуки)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">технологическая </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="10"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>трудоемкость всего, н./час.
+(гр.13*гр.15)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">основная заработная плата основных </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="10"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>работников</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="10"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">                                            (гр.14*гр.16)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>стоимость человеко/часа</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="10"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="10"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>(руб.) k=110,5% г/г</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>технологическая трудоемкость всего, н./час.
+(гр.18*гр.20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>основная заработная плата основных работников                                            (гр.19*гр.21)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>стоимость человеко/часа</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="10"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="10"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>(руб.)  k=108,3% г/г</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>технологическая трудоемкость всего, н./час.
+(гр.23*гр.25)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>основная заработная плата основных работников                                            (гр.24*гр.26)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>технологическая трудоемкость всего, н./час.
+(гр.28*гр.30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>основная заработная плата основных работников                                            (гр.29*гр.31)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>технологическая трудоемкость всего, н./час.
+(гр.33*гр.35)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>основная заработная плата основных работников                                            (гр.34*гр.36)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>стоимость человеко/часа</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="10"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="10"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>(руб.) k=108,3% г/г</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>технологическая трудоемкость всего, н./час.
+(гр.38*гр.40)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>основная заработная плата основных работников                                            (гр.39*гр.41)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ввыполнение проектно-изыскательских работ по капитальному ремонту здания гостиницы ЦРО КД МО РФ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по эвакуации ОЧ РКН из РП при обеспечении запуска БКА с КА "Глонасс-К2", №13Л-№14Л с космодрома Плесецк запуск №1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Эвакуация отделяющихся частей РН "Союз-2-1а" из районов падения № 981, № 983, № 985 при запуске КА "Кондор-ФКА" № 1 и ,"Кондор-ФКА" № 2 с космодрома "Восточный"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Эвакуация отделяющихся частей РН "Союз-2-1б" из районов падения № 981, № 983, № 985 при запуске КА "Ионосфера-М" № 1 ,"Ионосфера-М" № 2 с космодрома "Восточный"</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Оказание услуг в ОЧ РП РКН при обеспечении запуска БКА с КА "Глонасс-К2",-№14Л с космодрома Плесецк </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Оказание услуг в ОЧ РП РКН при обеспечении запуска БКА с КА "Глонасс-К",-№18Л с космодрома Плесецк </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Оказание услуг в ОЧ РП РКН при обеспечении запуска БКА с КА "Глонасс-К",-№19Л с космодрома Плесецк </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Оказание услуг в ОЧ РП РКН при обеспечении запуска БКА с КА "Глонасс-К",-№20Л с космодрома Плесецк </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Оказание услуг в ОЧ РП РКН при обеспечении запуска БКА с КА "Глонасс-К",-№21Л с космодрома Плесецк </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Услуги по организации и выполнению комбинированной перевозки груза по маршруту АО «ВПК «НПО машиностроения» - КЦ «Восточный" Амурская область» , д/с № 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению технической готовности объектов космодрома Плесецк для подготовки и запуска космических аппаратов «Рассвет-2» совместно с изделием 14Ф168 (Н3) ЦРО КД МО РФ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по организации , закупки, хранению и доставки к месту заправки огрегатов ПТО и ПЗО ГСМ в обеспечении исполнегия гоз контракта (ГРЦ Макеева 3ГРЦ)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по организации , закупки, хранению и доставки к месту заправки огрегатов ПТО и ПЗО ГСМ в обеспечении исполнегия гоз контракта (ГРЦ Макеева 4ГРЦ)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Перевозка командируемых работников МтС и оборудования заказчика на площадки 1ГИК МО РФ (ГРЦ Макеева 5ГРЦ)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 9 (с 24.10.2026г.) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 17 (с 25.04.2027г.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по обеспечению безопасности населения в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (п. 5.1.ТЗ) ЗАПУСК № 24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по экологическому обследованию РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.2. ТЗ) ЗАПУСК № 24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по поиску и очистке РП от фрагментов ОЧ РКН, вывозу фрагентов ОЧ РКН в места временного складирования при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.3. ТЗ) ЗАПУСК № 24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночно стоимости и рализации лома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН "Союз-2.1б" с космодрома "Плесецк" (П. 5.4. ТЗ) ЗАПУСК № 24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Генеральный директор ООО "Бенефит Бизнес"</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">    __________________                   Ильичев П.В.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_______________________ 2025г.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_________________________ 2025г.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Форма № 22 (22д)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Коммерческие (внепроизводственные) затраты / база распределения затрат </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Транспортно-заготовительные затраты / база распределения затрат </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Главный бухгалтер ООО "Бенефит Бизнес"
+</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>плановой основной заработной платы</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>на выполнение работ (услуг):</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>ИТОГО плановая трудоемкость</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> по этапу</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>суточные</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>(руб.)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve"> средний заработок за дни нахождения в пути</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>отчисления на обязательное социальное страхование</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>(руб.)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Дополнительная заработная плата основных работников,</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     в % к основной заработной плате основных работников, %</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Период, предшествующий отчетному ( 2023 г.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отчетный период / период, предшествующий планируемому (2024 г.)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">плановых затрат </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>на приобретение полуфабрикатов</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> на</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Код ОКП / ОКПД2</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">цена за единицу </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>измерения</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> (руб.)</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:strike/>
+        <x:sz val="10"/>
+        <x:color rgb="FFFF0000"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t/>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">организация-поставщик </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">(подрядчик, исполнитель) </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">цена за единицу </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>измерения</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>(руб.)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">цена за единицу </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">измерения </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>(руб.)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">Расчет-обоснование
+норматива транспортно-заготовительных </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>затрат</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> на</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">всего </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>транспортно-заготовительных затрат</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Наименование статей</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>3</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Применяемый индекс цен</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>5</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">предложено организацией-поставщиком </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>(подрядчиком, исполнителем)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">База распределения общепроизводственных </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>затрат</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+(_________________________________________)</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>6</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="10"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t/>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Наименование статей затрат</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>3</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">Основание для включения
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>(техническая документация)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">    трудоемкость (____________</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>4</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Ставка погашения на единицу изделия</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>5</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve"> затрат на подготовку и освоение производства</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">на </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Наименование статьи
+затрат</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>2</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Подготовка и освоение видов продукции, объемы производства которых увеличились в два и более раз, всего:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Планируемый период (годы 2025-2030)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>общехозяйственных затрат / административно-управленческих расходов</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>на 2024 -2025год
+  по ООО "Бенефит Бизнес"</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:i/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">       (наименование подразделения / предприятия)  </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Предыдущий период (год 2024 г.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Предложено организацией - исполнителем</x:t>
+  </x:si>
+  <x:si>
+    <x:t>в т.ч. по госконтрактам (контрактам) ГОЗ</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">в т.ч. по госконтрактам (контрактам) ГОЗ </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ндс </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">доп. зарплата </x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">* утвержденный Заключением 4294 ВП МО РФ исх. № 4294/94 от 07.02.2024г. размер общехозяйственных затрат (накладных расходов в % от ОЗП) </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">- 424,36%.
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>Индексирование размера общехозяйственных затрат (накладных расходов в % от ОЗП) по годам выполнения этапов работ не применяется, поскольку применено индексирование ОЗП в соответствии с дефлятором, утвержденным в Письме Минэкономразвития России от 02.10.2024 № 35132-ПК/Д03и: "О применении показателей прогноза социально-экономического развития Российской Федерации в целях ценообразования на продукцию, поставляемую по государственному оборонному заказу": при уровне 496,96 руб. в 2025 году, 
 на 2026г. - k=110,5 к 2025 году - стоимость нормо-часа основных работников 549,14 руб.;
 на 2027 год -  k=108,3 к 2026 году - стоимость нормо-часа основных работников 594,72 руб.; 
 на 2028 год -  k=108,3 к 2027 году (в связи с отсутствием дополнительных сведений) - стоимость нормо-часа основных работников 644,08 руб.;
 на 2029 год -  k=108,3 к 2028 году (в связи с отсутствием дополнительных сведений) - стоимость нормо-часа основных работников 697,54 руб.;
-на 2030 год -  k=108,3 к 2029 году (в связи с отсутствием дополнительных сведений) - стоимость нормо-часа основных работников 755,44 руб.</t>
-    </r>
-  </si>
-  <si>
-    <t>______________    Ильичев П.В.</t>
-  </si>
-  <si>
-    <t>______________      Барышева И.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     (подпись)                            (Ф.И.О.)</t>
-  </si>
-  <si>
-    <t>Отчет за n-ый год (2024 г.)</t>
-  </si>
-  <si>
-    <r>
-      <t>среднесписочная численность основных работников</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>6.2</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>6.3</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>7.1</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>основные работники</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>7.2</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>7.3</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>8.</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Норматив основной заработной платы основных работников</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (стоимость ):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>9.1</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>9.2</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>9.3</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10.</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Норматив дополнительной заработной 
-платы основных работников</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>единица измерения</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">База распределения общепроизводственных затрат </t>
-  </si>
-  <si>
-    <t xml:space="preserve">База распределения общехозяйственных затрат / административно-управленческих расходов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сведения о нормативах и экономических показателях организации, используемых при определении                                                                                                       цены продукции на 2024год и прогнозный период 2025*-2030* годов.         				</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Отчетный период 2024 гг. </t>
-  </si>
-  <si>
-    <t>Номенклатура, нормы расхода (количество) сырья и материалов, полуфабрикатов, покупных комплектующих изделий, указанные в данной форме, необходимы для выполнения требований ТЗ в полном объёме и определены с учётом ранее выполненных (оказанных) аналогичных работ (услуг).
+на 2030 год -  k=108,3 к 2029 году (в связи с отсутствием дополнительных сведений) - стоимость нормо-часа основных работников 755,44 руб.</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>______________    Ильичев П.В.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>______________      !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     (подпись)                            (Ф.И.О.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отчет за n-ый год (2024 г.)</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>среднесписочная численность основных работников</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>3</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>:</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>6.2</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:strike/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>6.3</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:strike/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>7.1</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:strike/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>основные работники</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>3</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>:</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>7.2</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:strike/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>7.3</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:strike/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>8.</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:strike/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Норматив основной заработной платы основных работников</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>3</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> (стоимость ):</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>9.1</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:strike/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>9.2</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:strike/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>9.3</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:strike/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>10.</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:strike/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Норматив дополнительной заработной 
+платы основных работников</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>3</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>единица измерения</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>5</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">База распределения общепроизводственных затрат </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">База распределения общехозяйственных затрат / административно-управленческих расходов </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Сведения о нормативах и экономических показателях организации, используемых при определении                                                                                                       цены продукции на 2024год и прогнозный период 2025*-2030* годов.         				</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">1 </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="superscript"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>3</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Отчетный период 2024 гг. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Номенклатура, нормы расхода (количество) сырья и материалов, полуфабрикатов, покупных комплектующих изделий, указанные в данной форме, необходимы для выполнения требований ТЗ в полном объёме и определены с учётом ранее выполненных (оказанных) аналогичных работ (услуг).
 Затраты на услуги рассчитаны затратным методом на 2025 год.
 При пересчете (индексации) прогнозных затрат на 2026-2027 годы в соответствии с Письмом Минэкономразвития России от 02.10.2024 № 35132-ПК/Д03и "О применении показателей прогноза социально-экономического развития Российской Федерации в целях ценообразования на продукцию, поставляемую по государственному оборонному заказу" - Рост цен на услуги потребительского рынка - применяется коэффициент: 
 на 2026 год k=104,4 к 2025 году; 
@@ -4735,14 +4734,14 @@
 При пересчете (индексации) прогнозных затрат на 2028-2030 годы в соответствии с Письмом Минэкономразвития России от 07.12.2018г. № 36097-АТ/Д03и «О показателях долгосрочного прогноза социально-экономического развития Российской Федерации на период до 2036 года, используемых в целях ценообразования на продукцию, поставляемую по государственному оборонному заказу» на плановый период 2028-2030 годов - Рост цен на услуги потребительского рынка - применяется коэффициент:
 в 2028 году k=104,2 к 2027 году;  
 в 2029 году k=104,2 к 2028 году;   
-в 2030 году k=104,2 к 2029 году.</t>
-  </si>
-  <si>
-    <t>"   " ______________ 2025 г.</t>
-  </si>
-  <si>
-    <r>
-      <t>По п. 1:  потребное количество топлива определено исходя из планируемого периода работы (пробега) в соответствии с Распоряжением Минтранса России от 14.03.2008 N АМ-23-р (ред. от 30.09.2021) О введении в действие методических рекомендаций "Нормы расхода топлив и смазочных материалов на автомобильном транспорте":
+в 2030 году k=104,2 к 2029 году.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"   " ______________ 2030г.</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>По п. 1:  потребное количество топлива определено исходя из планируемого периода работы (пробега) в соответствии с Распоряжением Минтранса России от 14.03.2008 N АМ-23-р (ред. от 30.09.2021) О введении в действие методических рекомендаций "Нормы расхода топлив и смазочных материалов на автомобильном транспорте":
 УАЗ-3163-10 Patriot (ЗМЗ-40905) - 13,8 л/100км. п. 111 (таблица 7.1.1. Легковые автомобили отечественные и стран СНГ выпуска с 2008 года (в ред. Распоряжения Минтранса РФ от 14.05.2014 N НА-50-р)(введен распоряжением Минтранса России от 06.04.2018 N НА-51-р),
 Лада RS045L Лада Ларгус - 10,6 п.99 (таблица 7.1.1. Легковые автомобили отечественные и стран СНГ выпуска с 2008 года (в ред. Распоряжения Минтранса РФ от 14.05.2014 N НА-50-р)
 Тягач магистральный Scania P114GA6x4NZ 380 - 21,0 л/100 км., (таблица 10.2.1. Тягачи зарубежные выпуска с 2008 года (в ред. Распоряжения Минтранса РФ от 14.07.2015 N НА-80-р)  
@@ -4752,15 +4751,15 @@
 КамАЗ 43114-15 (КамАЗ-740.31) - 29 л./100км. - (Таблица 9.1.1. Грузовые бортовые автомобили отечественные и стран СНГ выпуска с 2008 года (в ред. Распоряжения Минтранса РФ от 14.07.2015 N НА-80-р)
 Планируемые расстояния пробегов автотранспорта приняты по данным картографических сервисов. Количество работы автотранспортаи механизмов в РП (в с. Койда) принято на основании аналогичных работ, проведенных в РП "Вашка" (10 работ) без учета топлива на наземную эвакуацию фрагментов ОЧ РКН из РП. 
 Цены на топливо приняты по сведениям Росстата на 2025 год. 
-П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">о п. 2: потребное количество расходных (вспомогательных материалов) определено исходя из опыта проведения аналогичных работ (10 работ) в РП космодрома "Плесецк": "Вашка", "Койда".
+П</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="10.5"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">о п. 2: потребное количество расходных (вспомогательных материалов) определено исходя из опыта проведения аналогичных работ (10 работ) в РП космодрома "Плесецк": "Вашка", "Койда".
 Прогнозная цена материалов (в том числе топлива) рассчитана затратным методом (методом сравнения рыночных индикаторов) на 2025 год.
 При пересчете (индексации) прогнозных затрат на 2026-2027 годы в соответствии с Письмом Минэкономразвития России от 02.10.2024 № 35132-ПК/Д03и "О применении показателей прогноза социально-экономического развития Российской Федерации в целях ценообразования на продукцию, поставляемую по государственному оборонному заказу" - Индекс потребительских цен - применяется коэффициент: 
 на 2026 год k=104,3 к 2025 году; 
@@ -4768,115 +4767,115 @@
 При пересчете (индексации) прогнозных затрат на 2028-2030 годы в соответствии с Письмом Минэкономразвития России от 07.12.2018г. № 36097-АТ/Д03и «О показателях долгосрочного прогноза социально-экономического развития Российской Федерации на период до 2036 года, используемых в целях ценообразования на продукцию, поставляемую по государственному оборонному заказу» на плановый период 2028-2030 годов - индекс потребительских цен - применяется коэффициент:
 в 2028 году k=104,0 к 2027 году;  
 в 2029 году k=104,0 к 2028 году;   
-в 2030 году k=104,0 к 2029 году.     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">                      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">                     </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">плановых затрат на </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>приобретение</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> сырья, материалов </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>и вспомогательных материалов на</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цена за единицу </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>измерения (руб.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">организация-поставщик </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(подрядчик, исполнитель)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Перечень предполагаемых соисполнителей и номенклатура работ, указанных в данной форме, необходима для выполнения требований ТЗ в полном объёме и определены с учётом ранее выполненных (оказанных) аналогичных работ (услуг): 
+в 2030 году k=104,0 к 2029 году.     </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="10.5"/>
+        <x:color rgb="FFFF0000"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">                      </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="10.5"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">                     </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">плановых затрат на </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>приобретение</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> сырья, материалов </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>и вспомогательных материалов на</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">цена за единицу </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>измерения (руб.)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">организация-поставщик </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>(подрядчик, исполнитель)</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">Перечень предполагаемых соисполнителей и номенклатура работ, указанных в данной форме, необходима для выполнения требований ТЗ в полном объёме и определены с учётом ранее выполненных (оказанных) аналогичных работ (услуг): 
 1) П.1: Мероприятия по обеспечению безопасности населения и оценки последствий падения являются наиболее значимыми при проведении работ. В силу локации, расположении площади РП "Койда" осуществлены они могут быть илшь с использованием авиационной техники, обладающей возможностью взлета-посадки с/на необорудованных площадок в условиях ограниченного посадочного маневра - вентолетной технике. Поскольку проведение работ связано с необходимостью проведения предпусковых и послепусковых облетов в строго регламентированное время, при осуществлении облетов необходимо использовать авиационную технику, допускающую безопасную эксплуатацию как в благоприятных, так и в сложных метеорологических условиях, в частности: низкая облачность, ветер, условия, способствующие обледенению воздушного судна. Единственный вертолет, способный гарантированно безопасно осуществить облет практически в любых погодных условиях - МИ-8, оборудованный противообледенительной системой, способный также принять на борт людей, обнаруженных в РП, при необходимости их эвакуации. При определении Заказчиком состава комиссии в количестве не более 4-х человек работы будут проводиться с использованием легких вертолетов типа Robinson R66. (Предприятие - Соисполнитель услуг определяется с использованием конкурентной процедуры конкурсной комиссией Исполнителя - ООО "Бенефит Бизнес")
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
 Затраты на услуги рассчитаны затратным методом на 2025 год.
 При пересчете (индексации) прогнозных затрат на 2026-2027 годы в соответствии с Письмом Минэкономразвития России от 02.10.2024 № 35132-ПК/Д03и "О применении показателей прогноза социально-экономического развития Российской Федерации в целях ценообразования на продукцию, поставляемую по государственному оборонному заказу" - Прогноз индексов цен производителей по видам экономической деятельности (промышленность) - применяется коэффициент: 
 на 2026 год k=103,6 к 2025 году; 
@@ -4884,83 +4883,83 @@
 При пересчете (индексации) прогнозных затрат на 2028-2030 годы в соответствии с Письмом Минэкономразвития России от 07.12.2018г. № 36097-АТ/Д03и «О показателях долгосрочного прогноза социально-экономического развития Российской Федерации на период до 2036 года, используемых в целях ценообразования на продукцию, поставляемую по государственному оборонному заказу» на плановый период 2028-2030 годов - Прогноз индексов цен производителей по видам экономической деятельности (промышленность) - применяется коэффициент:
 в 2028 году k=104,2 к 2027 году;  
 в 2029 году k=104,2 к 2028 году;   
-в 2030 году k=104,2 к 2029 году.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">                                                      
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Трудоемкость и</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> основная</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> заработная плата, учтенные при расчете цены</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>отчетный период / фактические затраты на __.__.20__ г.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>в том числе</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> работы персонала в служебных командировках на территориях с районным коэффициентом k=1,4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Количество и пункты назначения командировок, продолжительность пребывания в командировках, количество командируемых сотрудников, указанных в данной форме, необходимы для выполнения требований ТЗ в полном объеме.
+в 2030 году k=104,2 к 2029 году.  </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color rgb="FFFF0000"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve">                                                      
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Трудоемкость и</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> основная</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> заработная плата, учтенные при расчете цены</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>отчетный период / фактические затраты на __.__.20__ г.</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:u/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>в том числе</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> работы персонала в служебных командировках на территориях с районным коэффициентом k=1,4</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">Количество и пункты назначения командировок, продолжительность пребывания в командировках, количество командируемых сотрудников, указанных в данной форме, необходимы для выполнения требований ТЗ в полном объеме.
 Размер затрат по найму жилых помещений принят на основании сведений от агрегаторов в сети "Интернет", коммерческих предложений для с. Койда и г. Мезень (в связи с отсутствием рынка гостиничных услуг), оказывающих услуги по предоставлению жилых помещений для командированных сотрудников: в с. Койда - ООО "Строй Сервис" (ИНН 2925004349, ОГРН 1022901464838), в г. Мезень - Окулова Е.И. (ИНН 291701001141, 164750 г. Мезень пр. Свободы д.24). 
 Стоимость проезда принята по сведениям интернет-агрегатора https://www.tutu.ru и сведений с офоциальнго сайта авиакомпании - АО "2АОАО". 
 Размер суточных принят на основании ст. 167 ТК РФ, в соответствии с положениями абз. 12 п. 3 ст. 217 НК РФ, п.2 ст. 422 НК РФ. 
@@ -4968,67 +4967,67 @@
 Стоимость гостиниц в пути следования для водителей служебного автотранспорта отнесена на накладные расходы предприятия, в связи с невозможностью прогнозирования потребности и стоимости. 
 Работы предполагается выполнить за 1 командировку.
 Время в в пути следования для водителей легкового и грузового автотранспорта предприятия, не предусмотрено в связи с разъездным характером работы.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Затраты на услуги рассчитаны затратным методом на 2025 год.
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+      </x:rPr>
+      <x:t>Затраты на услуги рассчитаны затратным методом на 2025 год.
 При пересчете (индексации) прогнозных затрат на 2026-2027 годы в соответствии с Письмом Минэкономразвития России от 02.10.2024 № 35132-ПК/Д03и "О применении показателей прогноза социально-экономического развития Российской Федерации в целях ценообразования на продукцию, поставляемую по государственному оборонному заказу" - Рост цен на услуги потребительского рынка - применяется коэффициент: 
 на 2026 год k=104,4 к 2025 году; 
 на 2027 год k=104,0 к 2026 году.
 При пересчете (индексации) прогнозных затрат на 2028-2030 годы в соответствии с Письмом Минэкономразвития России от 07.12.2018г. № 36097-АТ/Д03и «О показателях долгосрочного прогноза социально-экономического развития Российской Федерации на период до 2036 года, используемых в целях ценообразования на продукцию, поставляемую по государственному оборонному заказу» на плановый период 2028-2030 годов - Рост цен на услуги потребительского рынка - применяется коэффициент:
 в 2028 году k=104,2 к 2027 году;  
 в 2029 году k=104,2 к 2028 году;   
-в 2030 году k=104,2 к 2029 году.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Размер среднего заработка за время нахождения в пути корректируется ежегодно в соответствии с изменеением прогнозного уровня заработной платы (Ф 22)</t>
-    </r>
-  </si>
-  <si>
-    <t>средний заработок (руб./сут.)</t>
-  </si>
-  <si>
-    <t>стоимость проезда</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>Оказание комплекса услуг в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН «Союз-2.1б» с космодрома Плесецк (Запуски 1-24). Этап № 96. Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночной стоимости и реализациилома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН «Союз-2.1б» с космодрома Плесецк. (запуск 24) (п. 5.4. ТЗ)</t>
-  </si>
-  <si>
-    <t>Этап № 94. комплекс услуг</t>
-  </si>
-  <si>
-    <t>всего на 1 запуск k=103.6, k=103.5, k=102.6, k=104.2, k=104.2</t>
-  </si>
-  <si>
-    <t>применяемый индекс цен k=105.7, k=104.1, k=102.6, k=102.6, k=102.6</t>
-  </si>
-  <si>
-    <t>*)
+в 2030 году k=104,2 к 2029 году.</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:sz val="11"/>
+        <x:rFont val="Times New Roman"/>
+        <x:family val="1"/>
+        <x:charset val="204"/>
+      </x:rPr>
+      <x:t>Размер среднего заработка за время нахождения в пути корректируется ежегодно в соответствии с изменеением прогнозного уровня заработной платы (Ф 22)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>средний заработок (руб./сут.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>стоимость проезда</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Оказание комплекса услуг в РП при обеспечении запуска КА ООО "Бюро 1440" с использованием РН «Союз-2.1б» с космодрома Плесецк (Запуски 1-24). Этап № 96. Оказание услуг по разделке фрагментов ОЧ РКН по группам материалов, хранению, определению рыночной стоимости и реализациилома металлов при обеспечении запуска КА ООО "Бюро 1440" с использованием РН «Союз-2.1б» с космодрома Плесецк. (запуск 24) (п. 5.4. ТЗ)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Этап № 94. комплекс услуг</x:t>
+  </x:si>
+  <x:si>
+    <x:t>всего на 1 запуск k=103.6, k=103.5, k=102.6, k=104.2, k=104.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>применяемый индекс цен k=105.7, k=104.1, k=102.6, k=102.6, k=102.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*)
 Исходный расчёт содержит показатель заработной платы - в 2025 году – 496,96 руб. за 1 нормо-час – принято без индексации из имеющегося протокола согласования БЭП, утвержденного Заключением 4294 ВП МО РФ исх. № 4294/94 от 07.02.2024г.
 На основании Письма Минэкономразвития России от 02.10.2024 № 35132-ПК/Д03и: «О применении показателей прогноза социально-экономического развития Российской Федерации в целях ценообразования на продукцию, поставляемую по государственному оборонному заказу» на плановый период 2026 и 2027 годов индексация заработной платы: 
 - в 2026 году – 496,96*105,7 – 525,29 руб. за 1 нормо-час;
@@ -5036,9 +5035,9 @@
 На основании Письма Минэкономразвития России от 07.12.2018г. № 36097-АТ/Д03и «О показателях долгосрочного прогноза социально-экономического развития Российской Федерации на период до 2036 года, используемых в целях ценообразования на продукцию, поставляемую по государственному оборонному заказу» на плановый период 2028-2030 годов
 - в 2028 году – 496,96*105,7*104,1*102,6 – 561, 04 руб. за 1 нормо-час;
 - в 2029 году – 496,96*105,7*104,1*102,6*102,6 – 575, 63 руб. за 1 нормо-час;
-- в 2030 году – 496,96*105,7*104,1*102,6*102,6*102,6 – 590, 59 руб. за 1 нормо-час.</t>
-  </si>
-</sst>
+- в 2030 году – 496,96*105,7*104,1*102,6*102,6*102,6 – 590, 59 руб. за 1 нормо-час.</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>

--- a/bin/Debug/net8.0-windows/96-24-2030_РКМ_Койда_4_разделка_и_реализация.xlsx
+++ b/bin/Debug/net8.0-windows/96-24-2030_РКМ_Койда_4_разделка_и_реализация.xlsx
@@ -1820,7 +1820,7 @@
     <x:t>ООО "Бенефит-Бизнес"</x:t>
   </x:si>
   <x:si>
-    <x:t>цена за единицу измерения (руб.)</x:t>
+    <x:t>!*! за единицу измерения (руб.)</x:t>
   </x:si>
   <x:si>
     <x:t>ООО "Бенефит Бизнес"</x:t>
@@ -3872,7 +3872,7 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t xml:space="preserve">цена за единицу </x:t>
+      <x:t xml:space="preserve">!*! за единицу </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -3921,7 +3921,7 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t xml:space="preserve">цена за единицу </x:t>
+      <x:t xml:space="preserve">!*! за единицу </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -3956,7 +3956,7 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t xml:space="preserve">цена за единицу </x:t>
+      <x:t xml:space="preserve">!*! за единицу </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -4760,7 +4760,7 @@
         <x:family val="1"/>
       </x:rPr>
       <x:t xml:space="preserve">о п. 2: потребное количество расходных (вспомогательных материалов) определено исходя из опыта проведения аналогичных работ (10 работ) в РП космодрома "Плесецк": "Вашка", "Койда".
-Прогнозная цена материалов (в том числе топлива) рассчитана затратным методом (методом сравнения рыночных индикаторов) на 2025 год.
+Прогнозная !*! материалов (в том числе топлива) рассчитана затратным методом (методом сравнения рыночных индикаторов) на 2025 год.
 При пересчете (индексации) прогнозных затрат на 2026-2027 годы в соответствии с Письмом Минэкономразвития России от 02.10.2024 № 35132-ПК/Д03и "О применении показателей прогноза социально-экономического развития Российской Федерации в целях ценообразования на продукцию, поставляемую по государственному оборонному заказу" - Индекс потребительских цен - применяется коэффициент: 
 на 2026 год k=104,3 к 2025 году; 
 на 2027 год k=104,0 к 2026 году.
@@ -4827,7 +4827,7 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t xml:space="preserve">цена за единицу </x:t>
+      <x:t xml:space="preserve">!*! за единицу </x:t>
     </x:r>
     <x:r>
       <x:rPr>
